--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2020399.243314267</v>
+        <v>-2023064.653863284</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,14 +671,14 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>27.98943308627773</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>12.68669557114268</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>34.86547882798917</v>
@@ -786,14 +786,14 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.68669557114268</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,41 +908,41 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16.04014373166521</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,55 +987,55 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1060,25 +1060,25 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24.5704967621155</v>
+      </c>
+      <c r="H7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.68669557114269</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.7374062165301714</v>
       </c>
       <c r="Y8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,59 +1212,59 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G9" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.291937497222</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>181.3798302552708</v>
       </c>
       <c r="G11" t="n">
-        <v>411.082705318338</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>296.2563973803192</v>
       </c>
       <c r="I11" t="n">
-        <v>47.78309830338694</v>
+        <v>47.78309830338688</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>112.8560859017321</v>
       </c>
       <c r="T11" t="n">
         <v>204.6226586226522</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>169.7772302620841</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0856008798017</v>
       </c>
       <c r="H12" t="n">
-        <v>90.42872644673135</v>
+        <v>90.42872644673133</v>
       </c>
       <c r="I12" t="n">
-        <v>11.65697133930966</v>
+        <v>11.65697133930962</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>91.95721277365944</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.17897396269615</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>191.0274475752769</v>
@@ -1582,13 +1582,13 @@
         <v>219.8574826379858</v>
       </c>
       <c r="U13" t="n">
-        <v>246.251071248428</v>
+        <v>286.2157769293808</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>95.85999769836974</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1658,7 @@
         <v>110.226899065519</v>
       </c>
       <c r="T14" t="n">
-        <v>90.41792479509891</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>69.77481024876184</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.046263386139</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.9368795899061</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.96756186877069</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>89.85188956723009</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>190.1255024102732</v>
       </c>
       <c r="T16" t="n">
-        <v>150.6120166517037</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2129539398189</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,13 +1850,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E17" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F17" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G17" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H17" t="n">
         <v>247.1744574010468</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.32657882015197</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T17" t="n">
         <v>156.2172691342562</v>
@@ -1904,13 +1904,13 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W17" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X17" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y17" t="n">
-        <v>338.3376184106849</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C19" t="n">
         <v>119.3465008532608</v>
@@ -2008,19 +2008,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E19" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F19" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G19" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H19" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I19" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95156932186381</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S19" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T19" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U19" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V19" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W19" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X19" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y19" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="20">
@@ -2087,13 +2087,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E20" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F20" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G20" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H20" t="n">
         <v>247.1744574010468</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.32657882015197</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T20" t="n">
         <v>156.2172691342562</v>
@@ -2138,16 +2138,16 @@
         <v>203.0984998092974</v>
       </c>
       <c r="V20" t="n">
-        <v>279.8519382247678</v>
+        <v>279.8519382247679</v>
       </c>
       <c r="W20" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X20" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y20" t="n">
-        <v>338.3376184106865</v>
+        <v>338.3376184106866</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C22" t="n">
         <v>119.3465008532608</v>
@@ -2245,19 +2245,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E22" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F22" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G22" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H22" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I22" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95156932186303</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S22" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T22" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U22" t="n">
-        <v>238.3126336944518</v>
+        <v>238.3126336944519</v>
       </c>
       <c r="V22" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W22" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X22" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2324,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E23" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F23" t="n">
-        <v>358.9757254963445</v>
+        <v>358.9757254963444</v>
       </c>
       <c r="G23" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H23" t="n">
-        <v>247.1744574010468</v>
+        <v>247.1744574010469</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W23" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X23" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y23" t="n">
-        <v>338.3376184106866</v>
+        <v>338.337618410686</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.8325163776689</v>
       </c>
       <c r="I24" t="n">
-        <v>9.531517641698272</v>
+        <v>9.531517641698244</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C25" t="n">
         <v>119.3465008532608</v>
@@ -2482,19 +2482,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E25" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F25" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G25" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H25" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I25" t="n">
-        <v>49.06724162340364</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>142.2251821649061</v>
       </c>
       <c r="T25" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U25" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V25" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W25" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X25" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="26">
@@ -2561,13 +2561,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E26" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F26" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G26" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H26" t="n">
         <v>247.1744574010468</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.32657882015197</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T26" t="n">
         <v>156.2172691342562</v>
@@ -2615,10 +2615,10 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W26" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X26" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y26" t="n">
         <v>338.3376184106866</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C28" t="n">
         <v>119.3465008532608</v>
@@ -2719,19 +2719,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E28" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F28" t="n">
-        <v>97.52072777756419</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G28" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H28" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I28" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340365</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95156932186303</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S28" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T28" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U28" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V28" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W28" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X28" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y28" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2798,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E29" t="n">
-        <v>334.0300498268947</v>
+        <v>334.0300498268948</v>
       </c>
       <c r="F29" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G29" t="n">
-        <v>363.0670066051173</v>
+        <v>363.0670066051174</v>
       </c>
       <c r="H29" t="n">
         <v>247.1744574010468</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.32657882015197</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T29" t="n">
         <v>156.2172691342562</v>
@@ -2852,10 +2852,10 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W29" t="n">
-        <v>301.3406484720459</v>
+        <v>301.340648472046</v>
       </c>
       <c r="X29" t="n">
-        <v>321.8307804331019</v>
+        <v>321.830780433102</v>
       </c>
       <c r="Y29" t="n">
         <v>338.3376184106866</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>131.9316599365702</v>
+        <v>131.9316599365703</v>
       </c>
       <c r="C31" t="n">
         <v>119.3465008532608</v>
@@ -2956,19 +2956,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E31" t="n">
-        <v>98.53364240120212</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F31" t="n">
-        <v>97.5207277775645</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G31" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H31" t="n">
-        <v>97.036559344539</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I31" t="n">
-        <v>49.06724162340363</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95156932186303</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S31" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T31" t="n">
-        <v>171.7360282102756</v>
+        <v>171.7360282102757</v>
       </c>
       <c r="U31" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V31" t="n">
-        <v>204.2373230784609</v>
+        <v>204.237323078461</v>
       </c>
       <c r="W31" t="n">
-        <v>238.6226780912239</v>
+        <v>238.622678091224</v>
       </c>
       <c r="X31" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y31" t="n">
-        <v>170.6843331067277</v>
+        <v>170.6843331067278</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.32657882015202</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T32" t="n">
         <v>156.2172691342562</v>
@@ -3190,22 +3190,22 @@
         <v>119.3465008532608</v>
       </c>
       <c r="D34" t="n">
-        <v>100.7151527728453</v>
+        <v>100.7151527728456</v>
       </c>
       <c r="E34" t="n">
-        <v>98.53364240120216</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F34" t="n">
-        <v>97.52072777756423</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G34" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H34" t="n">
-        <v>97.03655934453904</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I34" t="n">
-        <v>49.06724162340367</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>363.0670066051174</v>
       </c>
       <c r="H35" t="n">
-        <v>247.1744574010469</v>
+        <v>247.1744574010468</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.32657882015202</v>
+        <v>62.32657882015199</v>
       </c>
       <c r="T35" t="n">
         <v>156.2172691342562</v>
@@ -3427,22 +3427,22 @@
         <v>119.3465008532608</v>
       </c>
       <c r="D37" t="n">
-        <v>100.7151527728454</v>
+        <v>100.7151527728453</v>
       </c>
       <c r="E37" t="n">
-        <v>98.53364240120217</v>
+        <v>98.53364240120214</v>
       </c>
       <c r="F37" t="n">
-        <v>97.52072777756425</v>
+        <v>97.52072777756422</v>
       </c>
       <c r="G37" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H37" t="n">
-        <v>97.03655934453906</v>
+        <v>97.03655934453903</v>
       </c>
       <c r="I37" t="n">
-        <v>49.06724162340369</v>
+        <v>49.06724162340366</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95156932186309</v>
+        <v>41.95156932186306</v>
       </c>
       <c r="S37" t="n">
         <v>142.2251821649061</v>
@@ -3487,7 +3487,7 @@
         <v>238.622678091224</v>
       </c>
       <c r="X37" t="n">
-        <v>177.8093351436702</v>
+        <v>177.8093351436701</v>
       </c>
       <c r="Y37" t="n">
         <v>170.6843331067278</v>
@@ -3509,16 +3509,16 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E38" t="n">
-        <v>334.0300498268948</v>
+        <v>334.0300498268947</v>
       </c>
       <c r="F38" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G38" t="n">
-        <v>363.0670066051174</v>
+        <v>363.0670066051173</v>
       </c>
       <c r="H38" t="n">
-        <v>247.1744574010469</v>
+        <v>247.1744574010468</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.32657882015202</v>
+        <v>62.32657882015197</v>
       </c>
       <c r="T38" t="n">
         <v>156.2172691342562</v>
@@ -3563,10 +3563,10 @@
         <v>279.8519382247679</v>
       </c>
       <c r="W38" t="n">
-        <v>301.340648472046</v>
+        <v>301.3406484720459</v>
       </c>
       <c r="X38" t="n">
-        <v>321.830780433102</v>
+        <v>321.8307804331019</v>
       </c>
       <c r="Y38" t="n">
         <v>338.3376184106866</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.9316599365703</v>
+        <v>131.9316599365702</v>
       </c>
       <c r="C40" t="n">
         <v>119.3465008532608</v>
       </c>
       <c r="D40" t="n">
-        <v>100.7151527728454</v>
+        <v>100.7151527728453</v>
       </c>
       <c r="E40" t="n">
-        <v>98.53364240120217</v>
+        <v>98.53364240120212</v>
       </c>
       <c r="F40" t="n">
-        <v>97.52072777756425</v>
+        <v>97.52072777756419</v>
       </c>
       <c r="G40" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H40" t="n">
-        <v>97.03655934453906</v>
+        <v>97.036559344539</v>
       </c>
       <c r="I40" t="n">
-        <v>49.06724162340369</v>
+        <v>49.06724162340363</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95156932186309</v>
+        <v>41.95156932186303</v>
       </c>
       <c r="S40" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T40" t="n">
-        <v>171.7360282102757</v>
+        <v>171.7360282102756</v>
       </c>
       <c r="U40" t="n">
-        <v>238.3126336944519</v>
+        <v>238.3126336944518</v>
       </c>
       <c r="V40" t="n">
-        <v>204.237323078461</v>
+        <v>204.2373230784609</v>
       </c>
       <c r="W40" t="n">
-        <v>238.622678091224</v>
+        <v>238.6226780912239</v>
       </c>
       <c r="X40" t="n">
-        <v>177.8093351436702</v>
+        <v>177.8093351436701</v>
       </c>
       <c r="Y40" t="n">
-        <v>170.6843331067278</v>
+        <v>170.6843331067277</v>
       </c>
     </row>
     <row r="41">
@@ -3746,13 +3746,13 @@
         <v>306.7827213753159</v>
       </c>
       <c r="E41" t="n">
-        <v>334.0300498268948</v>
+        <v>334.0300498268947</v>
       </c>
       <c r="F41" t="n">
         <v>358.9757254963444</v>
       </c>
       <c r="G41" t="n">
-        <v>363.0670066051174</v>
+        <v>363.0670066051173</v>
       </c>
       <c r="H41" t="n">
         <v>247.1744574010468</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.32657882015199</v>
+        <v>62.32657882015197</v>
       </c>
       <c r="T41" t="n">
-        <v>156.2172691342562</v>
+        <v>156.2172691342561</v>
       </c>
       <c r="U41" t="n">
         <v>203.0984998092974</v>
       </c>
       <c r="V41" t="n">
-        <v>279.8519382247679</v>
+        <v>279.8519382247678</v>
       </c>
       <c r="W41" t="n">
-        <v>301.340648472046</v>
+        <v>301.3406484720459</v>
       </c>
       <c r="X41" t="n">
-        <v>321.830780433102</v>
+        <v>321.8307804331019</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.3376184106866</v>
+        <v>338.3376184106865</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.9316599365703</v>
+        <v>131.9316599365702</v>
       </c>
       <c r="C43" t="n">
         <v>119.3465008532608</v>
@@ -3904,19 +3904,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E43" t="n">
-        <v>98.53364240120214</v>
+        <v>98.5336424012021</v>
       </c>
       <c r="F43" t="n">
-        <v>97.52072777756422</v>
+        <v>97.52072777756418</v>
       </c>
       <c r="G43" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.03655934453903</v>
+        <v>97.03655934453899</v>
       </c>
       <c r="I43" t="n">
-        <v>49.06724162340366</v>
+        <v>49.06724162340362</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95156932186306</v>
+        <v>41.951569321863</v>
       </c>
       <c r="S43" t="n">
         <v>142.2251821649061</v>
       </c>
       <c r="T43" t="n">
-        <v>171.7360282102757</v>
+        <v>171.7360282102756</v>
       </c>
       <c r="U43" t="n">
         <v>238.3126336944518</v>
       </c>
       <c r="V43" t="n">
-        <v>204.237323078461</v>
+        <v>204.2373230784609</v>
       </c>
       <c r="W43" t="n">
-        <v>238.622678091224</v>
+        <v>238.6226780912239</v>
       </c>
       <c r="X43" t="n">
         <v>177.8093351436701</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.6843331067278</v>
+        <v>170.6843331067277</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.32657882015199</v>
+        <v>62.32657882015198</v>
       </c>
       <c r="T44" t="n">
         <v>156.2172691342562</v>
@@ -4141,19 +4141,19 @@
         <v>100.7151527728453</v>
       </c>
       <c r="E46" t="n">
-        <v>98.53364240120214</v>
+        <v>98.53364240120213</v>
       </c>
       <c r="F46" t="n">
-        <v>97.52072777756422</v>
+        <v>97.5207277775642</v>
       </c>
       <c r="G46" t="n">
         <v>118.145943140772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.03655934453903</v>
+        <v>97.03655934453901</v>
       </c>
       <c r="I46" t="n">
-        <v>49.06724162340366</v>
+        <v>49.06724162340365</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95156932186306</v>
+        <v>41.95156932186305</v>
       </c>
       <c r="S46" t="n">
         <v>142.2251821649061</v>
@@ -4189,7 +4189,7 @@
         <v>171.7360282102757</v>
       </c>
       <c r="U46" t="n">
-        <v>238.3126336944519</v>
+        <v>238.3126336944518</v>
       </c>
       <c r="V46" t="n">
         <v>204.237323078461</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78.36807964162378</v>
+        <v>105.5369497332378</v>
       </c>
       <c r="C2" t="n">
-        <v>78.36807964162378</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="D2" t="n">
-        <v>78.36807964162378</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="E2" t="n">
-        <v>78.36807964162378</v>
+        <v>65.55323563036855</v>
       </c>
       <c r="F2" t="n">
-        <v>71.4225788924203</v>
+        <v>58.60773488116507</v>
       </c>
       <c r="G2" t="n">
-        <v>31.43886478955102</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H2" t="n">
-        <v>31.43886478955102</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I2" t="n">
         <v>3.166710156947247</v>
@@ -4331,19 +4331,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N2" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="O2" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O2" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4352,28 +4352,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="S2" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="T2" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="U2" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="V2" t="n">
         <v>118.3517937444931</v>
       </c>
-      <c r="S2" t="n">
-        <v>118.3517937444931</v>
-      </c>
-      <c r="T2" t="n">
-        <v>118.3517937444931</v>
-      </c>
-      <c r="U2" t="n">
-        <v>118.3517937444931</v>
-      </c>
-      <c r="V2" t="n">
-        <v>78.36807964162378</v>
-      </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>105.5369497332378</v>
       </c>
       <c r="X2" t="n">
-        <v>78.36807964162378</v>
+        <v>105.5369497332378</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.36807964162378</v>
+        <v>105.5369497332378</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="F3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G3" t="n">
-        <v>78.36807964162378</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H3" t="n">
         <v>38.38436553875449</v>
@@ -4410,22 +4410,22 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4434,19 +4434,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T3" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X3" t="n">
         <v>78.36807964162378</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.245045875396</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C4" t="n">
-        <v>13.245045875396</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D4" t="n">
-        <v>13.245045875396</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="J4" t="n">
         <v>3.166710156947247</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T4" t="n">
-        <v>93.21247408113457</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U4" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V4" t="n">
-        <v>53.22875997826529</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X4" t="n">
-        <v>53.22875997826529</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.245045875396</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105.5369497332378</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C5" t="n">
-        <v>105.5369497332378</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D5" t="n">
-        <v>65.55323563036855</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E5" t="n">
-        <v>65.55323563036855</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F5" t="n">
-        <v>58.60773488116507</v>
+        <v>71.4225788924203</v>
       </c>
       <c r="G5" t="n">
-        <v>43.15042425981653</v>
+        <v>31.43886478955102</v>
       </c>
       <c r="H5" t="n">
-        <v>43.15042425981653</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4571,16 +4571,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L5" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M5" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
@@ -4589,13 +4589,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U5" t="n">
         <v>118.3517937444931</v>
@@ -4604,13 +4604,13 @@
         <v>118.3517937444931</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X5" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C6" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F6" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H6" t="n">
         <v>3.166710156947247</v>
@@ -4647,16 +4647,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
         <v>119.1474696551402</v>
@@ -4674,22 +4674,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U6" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V6" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W6" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X6" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y6" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.15042425981653</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C7" t="n">
-        <v>43.15042425981653</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D7" t="n">
-        <v>43.15042425981653</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4741,34 +4741,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T7" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U7" t="n">
-        <v>93.21247408113457</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V7" t="n">
-        <v>83.13413836268582</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W7" t="n">
-        <v>83.13413836268582</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X7" t="n">
-        <v>43.15042425981653</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.15042425981653</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.36807964162378</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="C8" t="n">
-        <v>78.36807964162378</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="D8" t="n">
-        <v>38.38436553875449</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="E8" t="n">
-        <v>38.38436553875449</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="F8" t="n">
-        <v>31.43886478955102</v>
+        <v>30.69401002537914</v>
       </c>
       <c r="G8" t="n">
-        <v>15.98155416820249</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H8" t="n">
-        <v>15.98155416820249</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
@@ -4808,13 +4808,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
         <v>158.3355078473624</v>
@@ -4826,28 +4826,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>37.6395107745826</v>
       </c>
       <c r="Y8" t="n">
-        <v>118.3517937444931</v>
+        <v>37.6395107745826</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E9" t="n">
-        <v>78.36807964162378</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F9" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I9" t="n">
         <v>3.166710156947247</v>
@@ -4884,13 +4884,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
         <v>79.95943146291799</v>
@@ -4908,25 +4908,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W9" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="Y9" t="n">
-        <v>118.3517937444931</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="10">
@@ -4954,13 +4954,13 @@
         <v>53.22875997826529</v>
       </c>
       <c r="H10" t="n">
-        <v>43.15042425981653</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="I10" t="n">
-        <v>43.15042425981653</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1991.072773872973</v>
+        <v>1348.063762959055</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.110256932561</v>
+        <v>979.1012460186437</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.110256932561</v>
+        <v>979.1012460186437</v>
       </c>
       <c r="E11" t="n">
-        <v>1236.322004334317</v>
+        <v>593.3129934203995</v>
       </c>
       <c r="F11" t="n">
-        <v>825.3360995447098</v>
+        <v>410.1010436676007</v>
       </c>
       <c r="G11" t="n">
         <v>410.1010436676007</v>
       </c>
       <c r="H11" t="n">
-        <v>110.8521574248541</v>
+        <v>110.852157424854</v>
       </c>
       <c r="I11" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="J11" t="n">
-        <v>237.939214167704</v>
+        <v>237.9392141677049</v>
       </c>
       <c r="K11" t="n">
-        <v>551.4861429809648</v>
+        <v>551.4861429809662</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3705957477705</v>
+        <v>977.3705957477719</v>
       </c>
       <c r="M11" t="n">
-        <v>1482.918546043855</v>
+        <v>1482.918546043857</v>
       </c>
       <c r="N11" t="n">
-        <v>2001.260599088673</v>
+        <v>2001.260599088675</v>
       </c>
       <c r="O11" t="n">
-        <v>2477.381040081314</v>
+        <v>2477.381040081316</v>
       </c>
       <c r="P11" t="n">
-        <v>2849.237820173864</v>
+        <v>2849.237820173867</v>
       </c>
       <c r="Q11" t="n">
-        <v>3080.31402907111</v>
+        <v>3080.314029071113</v>
       </c>
       <c r="R11" t="n">
-        <v>3129.320078142352</v>
+        <v>3129.320078142355</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.320078142352</v>
+        <v>3015.324031776969</v>
       </c>
       <c r="T11" t="n">
-        <v>2922.630523978057</v>
+        <v>2808.634477612674</v>
       </c>
       <c r="U11" t="n">
-        <v>2922.630523978057</v>
+        <v>2808.634477612674</v>
       </c>
       <c r="V11" t="n">
-        <v>2922.630523978057</v>
+        <v>2477.571590269103</v>
       </c>
       <c r="W11" t="n">
-        <v>2922.630523978057</v>
+        <v>2124.802934998989</v>
       </c>
       <c r="X11" t="n">
-        <v>2549.164765716977</v>
+        <v>2124.802934998989</v>
       </c>
       <c r="Y11" t="n">
-        <v>2377.672613937094</v>
+        <v>1734.663603023177</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>165.7032680133935</v>
       </c>
       <c r="H12" t="n">
-        <v>74.36112008740227</v>
+        <v>74.36112008740228</v>
       </c>
       <c r="I12" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="J12" t="n">
-        <v>148.2074885062789</v>
+        <v>148.207488506279</v>
       </c>
       <c r="K12" t="n">
-        <v>372.7023883436091</v>
+        <v>372.7023883436094</v>
       </c>
       <c r="L12" t="n">
-        <v>847.987356745595</v>
+        <v>720.8860267214336</v>
       </c>
       <c r="M12" t="n">
-        <v>1273.658108143534</v>
+        <v>1146.556778119373</v>
       </c>
       <c r="N12" t="n">
-        <v>1725.003742623871</v>
+        <v>1725.00374262387</v>
       </c>
       <c r="O12" t="n">
         <v>2115.677025447656</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210.4994951452402</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="C13" t="n">
-        <v>210.4994951452402</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="D13" t="n">
-        <v>210.4994951452402</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="E13" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="F13" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="G13" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="H13" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="I13" t="n">
-        <v>62.58640156284705</v>
+        <v>62.58640156284711</v>
       </c>
       <c r="J13" t="n">
-        <v>102.6548439772309</v>
+        <v>102.6548439772311</v>
       </c>
       <c r="K13" t="n">
-        <v>298.3364401167966</v>
+        <v>298.3364401167968</v>
       </c>
       <c r="L13" t="n">
-        <v>604.2679469628303</v>
+        <v>604.2679469628306</v>
       </c>
       <c r="M13" t="n">
-        <v>937.2189492640266</v>
+        <v>937.2189492640271</v>
       </c>
       <c r="N13" t="n">
-        <v>1267.687737334435</v>
+        <v>1267.687737334436</v>
       </c>
       <c r="O13" t="n">
-        <v>1556.912855526275</v>
+        <v>1556.912855526276</v>
       </c>
       <c r="P13" t="n">
-        <v>1780.874227093654</v>
+        <v>1780.874227093655</v>
       </c>
       <c r="Q13" t="n">
-        <v>1852.498391782901</v>
+        <v>1852.498391782902</v>
       </c>
       <c r="R13" t="n">
-        <v>1759.388317073107</v>
+        <v>1852.498391782902</v>
       </c>
       <c r="S13" t="n">
-        <v>1566.431299320302</v>
+        <v>1659.541374030097</v>
       </c>
       <c r="T13" t="n">
-        <v>1344.353034029407</v>
+        <v>1437.463108739202</v>
       </c>
       <c r="U13" t="n">
-        <v>1095.614578222914</v>
+        <v>1148.356263355989</v>
       </c>
       <c r="V13" t="n">
-        <v>840.9300900170273</v>
+        <v>893.6717751501021</v>
       </c>
       <c r="W13" t="n">
-        <v>840.9300900170273</v>
+        <v>604.2546051131415</v>
       </c>
       <c r="X13" t="n">
-        <v>612.9405391190099</v>
+        <v>376.2650542151241</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.1479599754799</v>
+        <v>155.472475071594</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2361.864999887239</v>
+        <v>2100.427581783892</v>
       </c>
       <c r="C14" t="n">
-        <v>1992.902482946828</v>
+        <v>1731.46506484348</v>
       </c>
       <c r="D14" t="n">
         <v>1634.636784340077</v>
@@ -5267,37 +5267,37 @@
         <v>837.8626269522254</v>
       </c>
       <c r="G14" t="n">
-        <v>422.744114982039</v>
+        <v>422.7441149820392</v>
       </c>
       <c r="H14" t="n">
         <v>124.6887840260655</v>
       </c>
       <c r="I14" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J14" t="n">
-        <v>433.3692259645358</v>
+        <v>265.9635769441828</v>
       </c>
       <c r="K14" t="n">
-        <v>1035.744564845047</v>
+        <v>875.781427855616</v>
       </c>
       <c r="L14" t="n">
-        <v>1479.654529301995</v>
+        <v>1733.175994717511</v>
       </c>
       <c r="M14" t="n">
-        <v>2005.259334497637</v>
+        <v>2258.780799913153</v>
       </c>
       <c r="N14" t="n">
-        <v>2543.982783323084</v>
+        <v>2797.504248738599</v>
       </c>
       <c r="O14" t="n">
-        <v>3039.348798403032</v>
+        <v>3292.870263818547</v>
       </c>
       <c r="P14" t="n">
-        <v>3746.211951806773</v>
+        <v>3681.152696132521</v>
       </c>
       <c r="Q14" t="n">
-        <v>3989.623141459237</v>
+        <v>3924.563885784984</v>
       </c>
       <c r="R14" t="n">
         <v>4045.804356784973</v>
@@ -5306,22 +5306,22 @@
         <v>3934.46405469859</v>
       </c>
       <c r="T14" t="n">
-        <v>3843.132817531824</v>
+        <v>3934.46405469859</v>
       </c>
       <c r="U14" t="n">
-        <v>3843.132817531824</v>
+        <v>3934.46405469859</v>
       </c>
       <c r="V14" t="n">
-        <v>3512.069930188253</v>
+        <v>3603.401167355019</v>
       </c>
       <c r="W14" t="n">
-        <v>3512.069930188253</v>
+        <v>3250.632512084905</v>
       </c>
       <c r="X14" t="n">
-        <v>3138.604171927173</v>
+        <v>2877.166753823825</v>
       </c>
       <c r="Y14" t="n">
-        <v>2748.464839951361</v>
+        <v>2487.027421848014</v>
       </c>
     </row>
     <row r="15">
@@ -5346,13 +5346,13 @@
         <v>317.6715436776052</v>
       </c>
       <c r="G15" t="n">
-        <v>181.2837982663733</v>
+        <v>181.2837982663734</v>
       </c>
       <c r="H15" t="n">
-        <v>90.54388273337445</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I15" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J15" t="n">
         <v>172.3112574064236</v>
@@ -5361,10 +5361,10 @@
         <v>406.6749853325576</v>
       </c>
       <c r="L15" t="n">
-        <v>796.6986944040984</v>
+        <v>768.1284809648084</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.854743319222</v>
+        <v>1209.284529879932</v>
       </c>
       <c r="N15" t="n">
         <v>1705.095525064084</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>396.7422175615167</v>
+        <v>1008.386792975387</v>
       </c>
       <c r="C16" t="n">
-        <v>227.8060346336098</v>
+        <v>937.9071866635061</v>
       </c>
       <c r="D16" t="n">
-        <v>227.8060346336098</v>
+        <v>787.7905472511703</v>
       </c>
       <c r="E16" t="n">
-        <v>227.8060346336098</v>
+        <v>639.8774536687772</v>
       </c>
       <c r="F16" t="n">
-        <v>80.91608713569946</v>
+        <v>492.9875061708668</v>
       </c>
       <c r="G16" t="n">
-        <v>80.91608713569946</v>
+        <v>325.2640078010294</v>
       </c>
       <c r="H16" t="n">
-        <v>80.91608713569946</v>
+        <v>178.8631193263769</v>
       </c>
       <c r="I16" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J16" t="n">
         <v>124.6070038707676</v>
@@ -5443,7 +5443,7 @@
         <v>639.7905282089209</v>
       </c>
       <c r="M16" t="n">
-        <v>980.7732039975234</v>
+        <v>980.7732039975235</v>
       </c>
       <c r="N16" t="n">
         <v>1319.082690311481</v>
@@ -5452,7 +5452,7 @@
         <v>1615.549962385023</v>
       </c>
       <c r="P16" t="n">
-        <v>1845.708247718941</v>
+        <v>1845.708247718942</v>
       </c>
       <c r="Q16" t="n">
         <v>1921.622834289097</v>
@@ -5461,25 +5461,25 @@
         <v>1830.863349877753</v>
       </c>
       <c r="S16" t="n">
-        <v>1830.863349877753</v>
+        <v>1638.817387847174</v>
       </c>
       <c r="T16" t="n">
-        <v>1678.729999724517</v>
+        <v>1638.817387847174</v>
       </c>
       <c r="U16" t="n">
-        <v>1389.626005845912</v>
+        <v>1638.817387847174</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.941517640025</v>
+        <v>1638.817387847174</v>
       </c>
       <c r="W16" t="n">
-        <v>845.5243476030641</v>
+        <v>1638.817387847174</v>
       </c>
       <c r="X16" t="n">
-        <v>617.5347967050468</v>
+        <v>1410.827836949156</v>
       </c>
       <c r="Y16" t="n">
-        <v>396.7422175615167</v>
+        <v>1190.035257805626</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C17" t="n">
         <v>1707.208976736426</v>
@@ -5501,16 +5501,16 @@
         <v>1059.923349259446</v>
       </c>
       <c r="F17" t="n">
-        <v>697.3216063338455</v>
+        <v>697.3216063338451</v>
       </c>
       <c r="G17" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H17" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I17" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J17" t="n">
         <v>265.9635769441828</v>
@@ -5519,19 +5519,19 @@
         <v>594.0403137998695</v>
       </c>
       <c r="L17" t="n">
-        <v>1037.950278256818</v>
+        <v>1451.434880661764</v>
       </c>
       <c r="M17" t="n">
-        <v>2008.573481610365</v>
+        <v>2323.840055587406</v>
       </c>
       <c r="N17" t="n">
         <v>2862.563504412852</v>
       </c>
       <c r="O17" t="n">
-        <v>3357.929519492799</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P17" t="n">
-        <v>3746.211951806773</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q17" t="n">
         <v>3989.623141459237</v>
@@ -5546,19 +5546,19 @@
         <v>3825.052995214864</v>
       </c>
       <c r="U17" t="n">
-        <v>3619.902995407492</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V17" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W17" t="n">
-        <v>3032.839776521821</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X17" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y17" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="18">
@@ -5583,13 +5583,13 @@
         <v>317.6715436776052</v>
       </c>
       <c r="G18" t="n">
-        <v>181.2837982663733</v>
+        <v>181.2837982663734</v>
       </c>
       <c r="H18" t="n">
-        <v>90.54388273337445</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I18" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J18" t="n">
         <v>172.3112574064236</v>
@@ -5601,13 +5601,13 @@
         <v>768.1284809648084</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N18" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O18" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P18" t="n">
         <v>2416.19684569515</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.1542365433634</v>
+        <v>768.1542365433627</v>
       </c>
       <c r="C19" t="n">
-        <v>647.6022154794636</v>
+        <v>647.6022154794629</v>
       </c>
       <c r="D19" t="n">
-        <v>545.869737931135</v>
+        <v>545.8697379311343</v>
       </c>
       <c r="E19" t="n">
-        <v>446.340806212749</v>
+        <v>446.3408062127482</v>
       </c>
       <c r="F19" t="n">
-        <v>347.8350205788458</v>
+        <v>347.835020578845</v>
       </c>
       <c r="G19" t="n">
-        <v>228.4956840730156</v>
+        <v>228.4956840730147</v>
       </c>
       <c r="H19" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623692</v>
       </c>
       <c r="I19" t="n">
-        <v>80.91608713569946</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J19" t="n">
-        <v>172.0283209136808</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K19" t="n">
-        <v>421.0840721851843</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L19" t="n">
-        <v>782.054479337661</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M19" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N19" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O19" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P19" t="n">
         <v>2177.657467019335</v>
       </c>
       <c r="Q19" t="n">
-        <v>2300.993370632405</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R19" t="n">
-        <v>2258.618048085067</v>
+        <v>2258.618048085066</v>
       </c>
       <c r="S19" t="n">
         <v>2114.956247918495</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.48551235256</v>
+        <v>1941.485512352559</v>
       </c>
       <c r="U19" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337961</v>
       </c>
       <c r="V19" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W19" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X19" t="n">
-        <v>1073.826956789119</v>
+        <v>1073.826956789118</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.4185395095959</v>
+        <v>901.4185395095953</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C20" t="n">
-        <v>1707.208976736426</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.327439993683</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E20" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F20" t="n">
-        <v>697.3216063338451</v>
+        <v>697.3216063338447</v>
       </c>
       <c r="G20" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H20" t="n">
         <v>80.91608713569947</v>
@@ -5762,7 +5762,7 @@
         <v>2175.979130630717</v>
       </c>
       <c r="N20" t="n">
-        <v>2797.504248738599</v>
+        <v>2714.702579456164</v>
       </c>
       <c r="O20" t="n">
         <v>3292.870263818547</v>
@@ -5786,7 +5786,7 @@
         <v>3619.902995407493</v>
       </c>
       <c r="V20" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W20" t="n">
         <v>3032.839776521822</v>
@@ -5884,52 +5884,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.1542365433634</v>
+        <v>768.1542365433633</v>
       </c>
       <c r="C22" t="n">
-        <v>647.6022154794636</v>
+        <v>647.6022154794634</v>
       </c>
       <c r="D22" t="n">
         <v>545.8697379311349</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3408062127489</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F22" t="n">
         <v>347.8350205788456</v>
       </c>
       <c r="G22" t="n">
-        <v>228.4956840730154</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H22" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623697</v>
       </c>
       <c r="I22" t="n">
         <v>80.91608713569947</v>
       </c>
       <c r="J22" t="n">
-        <v>172.028320913681</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K22" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L22" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M22" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N22" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O22" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P22" t="n">
         <v>2177.657467019335</v>
       </c>
       <c r="Q22" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R22" t="n">
         <v>2258.618048085067</v>
@@ -5953,7 +5953,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.4185395095959</v>
+        <v>901.418539509596</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2027.78733181283</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C23" t="n">
         <v>1707.208976736426</v>
@@ -5975,10 +5975,10 @@
         <v>1059.923349259446</v>
       </c>
       <c r="F23" t="n">
-        <v>697.321606333845</v>
+        <v>697.3216063338452</v>
       </c>
       <c r="G23" t="n">
-        <v>330.5872562276659</v>
+        <v>330.587256227666</v>
       </c>
       <c r="H23" t="n">
         <v>80.91608713569947</v>
@@ -5990,7 +5990,7 @@
         <v>265.9635769441828</v>
       </c>
       <c r="K23" t="n">
-        <v>594.0403137998694</v>
+        <v>909.3068877769109</v>
       </c>
       <c r="L23" t="n">
         <v>1353.21685223386</v>
@@ -5999,7 +5999,7 @@
         <v>2323.840055587406</v>
       </c>
       <c r="N23" t="n">
-        <v>2862.563504412853</v>
+        <v>2862.563504412852</v>
       </c>
       <c r="O23" t="n">
         <v>3357.9295194928</v>
@@ -6032,7 +6032,7 @@
         <v>2707.75818012475</v>
       </c>
       <c r="Y23" t="n">
-        <v>2366.003010012945</v>
+        <v>2366.003010012946</v>
       </c>
     </row>
     <row r="24">
@@ -6060,7 +6060,7 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H24" t="n">
-        <v>90.54388273337449</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I24" t="n">
         <v>80.91608713569947</v>
@@ -6069,22 +6069,22 @@
         <v>172.3112574064236</v>
       </c>
       <c r="K24" t="n">
-        <v>406.6749853325575</v>
+        <v>406.6749853325576</v>
       </c>
       <c r="L24" t="n">
-        <v>768.1284809648082</v>
+        <v>768.1284809648084</v>
       </c>
       <c r="M24" t="n">
         <v>1209.284529879932</v>
       </c>
       <c r="N24" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624794</v>
       </c>
       <c r="O24" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826538</v>
       </c>
       <c r="P24" t="n">
-        <v>2416.19684569515</v>
+        <v>2387.62663225586</v>
       </c>
       <c r="Q24" t="n">
         <v>2570.755063863742</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.1542365433627</v>
+        <v>768.1542365433625</v>
       </c>
       <c r="C25" t="n">
-        <v>647.6022154794629</v>
+        <v>647.6022154794626</v>
       </c>
       <c r="D25" t="n">
-        <v>545.8697379311343</v>
+        <v>545.8697379311341</v>
       </c>
       <c r="E25" t="n">
-        <v>446.3408062127484</v>
+        <v>446.340806212748</v>
       </c>
       <c r="F25" t="n">
-        <v>347.8350205788452</v>
+        <v>347.8350205788448</v>
       </c>
       <c r="G25" t="n">
-        <v>228.4956840730149</v>
+        <v>228.4956840730144</v>
       </c>
       <c r="H25" t="n">
         <v>130.4789574623698</v>
@@ -6151,7 +6151,7 @@
         <v>421.0840721851844</v>
       </c>
       <c r="L25" t="n">
-        <v>782.0544793376611</v>
+        <v>782.0544793376608</v>
       </c>
       <c r="M25" t="n">
         <v>1170.458472169177</v>
@@ -6163,7 +6163,7 @@
         <v>1900.077864642503</v>
       </c>
       <c r="P25" t="n">
-        <v>2177.657467019334</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q25" t="n">
         <v>2300.993370632403</v>
@@ -6184,13 +6184,13 @@
         <v>1494.465353996082</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.432345823129</v>
+        <v>1253.432345823128</v>
       </c>
       <c r="X25" t="n">
         <v>1073.826956789118</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.4185395095952</v>
+        <v>901.4185395095951</v>
       </c>
     </row>
     <row r="26">
@@ -6209,55 +6209,55 @@
         <v>1397.327439993682</v>
       </c>
       <c r="E26" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F26" t="n">
-        <v>697.3216063338455</v>
+        <v>697.321606333845</v>
       </c>
       <c r="G26" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H26" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I26" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J26" t="n">
-        <v>265.9635769441829</v>
+        <v>265.9635769441828</v>
       </c>
       <c r="K26" t="n">
-        <v>594.0403137998696</v>
+        <v>594.0403137998695</v>
       </c>
       <c r="L26" t="n">
-        <v>1451.434880661765</v>
+        <v>1037.950278256818</v>
       </c>
       <c r="M26" t="n">
-        <v>2323.840055587407</v>
+        <v>2008.573481610365</v>
       </c>
       <c r="N26" t="n">
-        <v>2862.563504412853</v>
+        <v>2547.296930435811</v>
       </c>
       <c r="O26" t="n">
-        <v>3357.929519492801</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P26" t="n">
-        <v>3746.211951806775</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q26" t="n">
         <v>3989.623141459238</v>
       </c>
       <c r="R26" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S26" t="n">
-        <v>3982.848216562599</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T26" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U26" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V26" t="n">
         <v>3337.22426992793</v>
@@ -6297,31 +6297,31 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H27" t="n">
-        <v>90.54388273337449</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I27" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J27" t="n">
-        <v>172.3112574064237</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K27" t="n">
-        <v>406.6749853325577</v>
+        <v>435.2451987718476</v>
       </c>
       <c r="L27" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M27" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N27" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O27" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P27" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q27" t="n">
         <v>2570.755063863742</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.154236543363</v>
+        <v>768.1542365433634</v>
       </c>
       <c r="C28" t="n">
-        <v>647.6022154794632</v>
+        <v>647.6022154794636</v>
       </c>
       <c r="D28" t="n">
-        <v>545.8697379311346</v>
+        <v>545.869737931135</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3408062127487</v>
+        <v>446.3408062127489</v>
       </c>
       <c r="F28" t="n">
-        <v>347.8350205788455</v>
+        <v>347.8350205788457</v>
       </c>
       <c r="G28" t="n">
-        <v>228.4956840730152</v>
+        <v>228.4956840730154</v>
       </c>
       <c r="H28" t="n">
         <v>130.4789574623698</v>
       </c>
       <c r="I28" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J28" t="n">
-        <v>172.028320913681</v>
+        <v>172.0283209136809</v>
       </c>
       <c r="K28" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L28" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M28" t="n">
         <v>1170.458472169177</v>
@@ -6403,7 +6403,7 @@
         <v>2177.657467019335</v>
       </c>
       <c r="Q28" t="n">
-        <v>2300.993370632404</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R28" t="n">
         <v>2258.618048085067</v>
@@ -6418,7 +6418,7 @@
         <v>1700.765680337962</v>
       </c>
       <c r="V28" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W28" t="n">
         <v>1253.432345823129</v>
@@ -6427,7 +6427,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.4185395095956</v>
+        <v>901.418539509596</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C29" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D29" t="n">
-        <v>1397.327439993684</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E29" t="n">
-        <v>1059.923349259446</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F29" t="n">
-        <v>697.321606333846</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G29" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H29" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I29" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J29" t="n">
-        <v>265.9635769441829</v>
+        <v>265.9635769441828</v>
       </c>
       <c r="K29" t="n">
-        <v>594.0403137998696</v>
+        <v>594.0403137998695</v>
       </c>
       <c r="L29" t="n">
-        <v>1451.434880661765</v>
+        <v>1037.950278256818</v>
       </c>
       <c r="M29" t="n">
-        <v>1977.039685857407</v>
+        <v>2008.573481610365</v>
       </c>
       <c r="N29" t="n">
-        <v>2652.371663659548</v>
+        <v>2862.563504412852</v>
       </c>
       <c r="O29" t="n">
-        <v>3147.737678739496</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P29" t="n">
-        <v>3536.02011105347</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q29" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459237</v>
       </c>
       <c r="R29" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784973</v>
       </c>
       <c r="S29" t="n">
-        <v>3982.848216562599</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T29" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U29" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407492</v>
       </c>
       <c r="V29" t="n">
-        <v>3337.22426992793</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W29" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X29" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y29" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H30" t="n">
-        <v>90.54388273337449</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I30" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J30" t="n">
-        <v>172.3112574064237</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K30" t="n">
-        <v>406.6749853325577</v>
+        <v>406.6749853325576</v>
       </c>
       <c r="L30" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M30" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N30" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O30" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P30" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q30" t="n">
         <v>2570.755063863742</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.1542365433635</v>
+        <v>768.1542365433629</v>
       </c>
       <c r="C31" t="n">
-        <v>647.6022154794637</v>
+        <v>647.6022154794631</v>
       </c>
       <c r="D31" t="n">
-        <v>545.8697379311351</v>
+        <v>545.8697379311345</v>
       </c>
       <c r="E31" t="n">
-        <v>446.3408062127492</v>
+        <v>446.3408062127485</v>
       </c>
       <c r="F31" t="n">
-        <v>347.8350205788456</v>
+        <v>347.8350205788453</v>
       </c>
       <c r="G31" t="n">
-        <v>228.4956840730153</v>
+        <v>228.495684073015</v>
       </c>
       <c r="H31" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623695</v>
       </c>
       <c r="I31" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J31" t="n">
         <v>172.0283209136809</v>
@@ -6625,7 +6625,7 @@
         <v>421.0840721851844</v>
       </c>
       <c r="L31" t="n">
-        <v>782.0544793376612</v>
+        <v>782.054479337661</v>
       </c>
       <c r="M31" t="n">
         <v>1170.458472169177</v>
@@ -6634,7 +6634,7 @@
         <v>1556.189275526047</v>
       </c>
       <c r="O31" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P31" t="n">
         <v>2177.657467019335</v>
@@ -6646,16 +6646,16 @@
         <v>2258.618048085067</v>
       </c>
       <c r="S31" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.485512352561</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U31" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337962</v>
       </c>
       <c r="V31" t="n">
-        <v>1494.465353996083</v>
+        <v>1494.465353996082</v>
       </c>
       <c r="W31" t="n">
         <v>1253.432345823129</v>
@@ -6664,7 +6664,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.418539509596</v>
+        <v>901.4185395095956</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2027.787331812831</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C32" t="n">
-        <v>1707.208976736427</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D32" t="n">
         <v>1397.327439993683</v>
@@ -6686,64 +6686,64 @@
         <v>1059.923349259446</v>
       </c>
       <c r="F32" t="n">
-        <v>697.3216063338457</v>
+        <v>697.321606333845</v>
       </c>
       <c r="G32" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H32" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I32" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J32" t="n">
-        <v>265.9635769441829</v>
+        <v>433.3692259645358</v>
       </c>
       <c r="K32" t="n">
-        <v>594.0403137998696</v>
+        <v>761.4459628202226</v>
       </c>
       <c r="L32" t="n">
-        <v>1451.434880661765</v>
+        <v>1205.355927277171</v>
       </c>
       <c r="M32" t="n">
-        <v>1977.039685857407</v>
+        <v>1730.960732472813</v>
       </c>
       <c r="N32" t="n">
-        <v>2515.763134682853</v>
+        <v>2269.68418129826</v>
       </c>
       <c r="O32" t="n">
-        <v>3357.929519492801</v>
+        <v>2765.050196378208</v>
       </c>
       <c r="P32" t="n">
-        <v>3746.211951806775</v>
+        <v>3471.913349781949</v>
       </c>
       <c r="Q32" t="n">
-        <v>3989.623141459238</v>
+        <v>3925.516380187718</v>
       </c>
       <c r="R32" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S32" t="n">
-        <v>3982.848216562599</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T32" t="n">
-        <v>3825.052995214865</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U32" t="n">
-        <v>3619.902995407494</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V32" t="n">
         <v>3337.22426992793</v>
       </c>
       <c r="W32" t="n">
-        <v>3032.839776521823</v>
+        <v>3032.839776521822</v>
       </c>
       <c r="X32" t="n">
-        <v>2707.758180124751</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y32" t="n">
-        <v>2366.003010012946</v>
+        <v>2366.003010012945</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H33" t="n">
-        <v>90.54388273337449</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I33" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J33" t="n">
-        <v>172.3112574064237</v>
+        <v>172.3112574064236</v>
       </c>
       <c r="K33" t="n">
-        <v>406.6749853325577</v>
+        <v>406.6749853325576</v>
       </c>
       <c r="L33" t="n">
         <v>768.1284809648084</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.854743319222</v>
+        <v>1209.284529879932</v>
       </c>
       <c r="N33" t="n">
-        <v>1705.095525064084</v>
+        <v>1676.525311624794</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.309762265828</v>
+        <v>2081.739548826538</v>
       </c>
       <c r="P33" t="n">
-        <v>2416.19684569515</v>
+        <v>2387.62663225586</v>
       </c>
       <c r="Q33" t="n">
         <v>2570.755063863742</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.154236543363</v>
+        <v>768.1542365433636</v>
       </c>
       <c r="C34" t="n">
-        <v>647.6022154794632</v>
+        <v>647.6022154794638</v>
       </c>
       <c r="D34" t="n">
-        <v>545.8697379311345</v>
+        <v>545.8697379311349</v>
       </c>
       <c r="E34" t="n">
-        <v>446.3408062127485</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F34" t="n">
-        <v>347.8350205788452</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G34" t="n">
-        <v>228.4956840730149</v>
+        <v>228.4956840730152</v>
       </c>
       <c r="H34" t="n">
-        <v>130.4789574623694</v>
+        <v>130.4789574623697</v>
       </c>
       <c r="I34" t="n">
-        <v>80.9160871356995</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J34" t="n">
         <v>172.0283209136809</v>
       </c>
       <c r="K34" t="n">
-        <v>421.0840721851845</v>
+        <v>421.0840721851844</v>
       </c>
       <c r="L34" t="n">
-        <v>782.0544793376612</v>
+        <v>782.0544793376611</v>
       </c>
       <c r="M34" t="n">
         <v>1170.458472169177</v>
@@ -6889,10 +6889,10 @@
         <v>1941.48551235256</v>
       </c>
       <c r="U34" t="n">
-        <v>1700.765680337962</v>
+        <v>1700.765680337963</v>
       </c>
       <c r="V34" t="n">
-        <v>1494.465353996082</v>
+        <v>1494.465353996083</v>
       </c>
       <c r="W34" t="n">
         <v>1253.432345823129</v>
@@ -6901,7 +6901,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.4185395095956</v>
+        <v>901.4185395095963</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2027.787331812832</v>
+        <v>2027.78733181283</v>
       </c>
       <c r="C35" t="n">
-        <v>1707.208976736428</v>
+        <v>1707.208976736425</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.327439993684</v>
+        <v>1397.327439993682</v>
       </c>
       <c r="E35" t="n">
-        <v>1059.923349259447</v>
+        <v>1059.923349259445</v>
       </c>
       <c r="F35" t="n">
-        <v>697.3216063338466</v>
+        <v>697.3216063338446</v>
       </c>
       <c r="G35" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H35" t="n">
-        <v>80.91608713569951</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="I35" t="n">
-        <v>80.91608713569951</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J35" t="n">
-        <v>433.3692259645359</v>
+        <v>433.3692259645358</v>
       </c>
       <c r="K35" t="n">
-        <v>767.1412657313939</v>
+        <v>1082.349921265676</v>
       </c>
       <c r="L35" t="n">
-        <v>1211.051230188343</v>
+        <v>1526.259885722624</v>
       </c>
       <c r="M35" t="n">
-        <v>1736.656035383985</v>
+        <v>2051.864690918266</v>
       </c>
       <c r="N35" t="n">
-        <v>2275.379484209431</v>
+        <v>2590.588139743712</v>
       </c>
       <c r="O35" t="n">
-        <v>3147.737678739497</v>
+        <v>3357.9295194928</v>
       </c>
       <c r="P35" t="n">
-        <v>3536.020111053471</v>
+        <v>3746.211951806774</v>
       </c>
       <c r="Q35" t="n">
-        <v>3989.623141459239</v>
+        <v>3989.623141459238</v>
       </c>
       <c r="R35" t="n">
-        <v>4045.804356784975</v>
+        <v>4045.804356784974</v>
       </c>
       <c r="S35" t="n">
-        <v>3982.8482165626</v>
+        <v>3982.848216562597</v>
       </c>
       <c r="T35" t="n">
-        <v>3825.052995214866</v>
+        <v>3825.052995214864</v>
       </c>
       <c r="U35" t="n">
-        <v>3619.902995407495</v>
+        <v>3619.902995407493</v>
       </c>
       <c r="V35" t="n">
-        <v>3337.224269927931</v>
+        <v>3337.224269927929</v>
       </c>
       <c r="W35" t="n">
-        <v>3032.839776521824</v>
+        <v>3032.839776521821</v>
       </c>
       <c r="X35" t="n">
-        <v>2707.758180124752</v>
+        <v>2707.758180124749</v>
       </c>
       <c r="Y35" t="n">
-        <v>2366.003010012947</v>
+        <v>2366.003010012944</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H36" t="n">
-        <v>90.5438827333745</v>
+        <v>90.54388273337446</v>
       </c>
       <c r="I36" t="n">
-        <v>80.91608713569951</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J36" t="n">
-        <v>172.3112574064237</v>
+        <v>200.8814708457136</v>
       </c>
       <c r="K36" t="n">
-        <v>406.6749853325577</v>
+        <v>435.2451987718476</v>
       </c>
       <c r="L36" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M36" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N36" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O36" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q36" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R36" t="n">
         <v>2570.755063863742</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.1542365433636</v>
+        <v>768.1542365433634</v>
       </c>
       <c r="C37" t="n">
-        <v>647.6022154794638</v>
+        <v>647.6022154794636</v>
       </c>
       <c r="D37" t="n">
-        <v>545.8697379311351</v>
+        <v>545.869737931135</v>
       </c>
       <c r="E37" t="n">
-        <v>446.340806212749</v>
+        <v>446.3408062127489</v>
       </c>
       <c r="F37" t="n">
-        <v>347.8350205788458</v>
+        <v>347.8350205788457</v>
       </c>
       <c r="G37" t="n">
-        <v>228.4956840730154</v>
+        <v>228.4956840730153</v>
       </c>
       <c r="H37" t="n">
-        <v>130.4789574623699</v>
+        <v>130.4789574623698</v>
       </c>
       <c r="I37" t="n">
-        <v>80.91608713569951</v>
+        <v>80.91608713569947</v>
       </c>
       <c r="J37" t="n">
         <v>172.0283209136809</v>
@@ -7099,22 +7099,22 @@
         <v>421.0840721851844</v>
       </c>
       <c r="L37" t="n">
-        <v>782.0544793376611</v>
+        <v>782.0544793376612</v>
       </c>
       <c r="M37" t="n">
         <v>1170.458472169177</v>
       </c>
       <c r="N37" t="n">
-        <v>1556.189275526047</v>
+        <v>1556.189275526048</v>
       </c>
       <c r="O37" t="n">
-        <v>1900.077864642503</v>
+        <v>1900.077864642504</v>
       </c>
       <c r="P37" t="n">
-        <v>2177.657467019335</v>
+        <v>2177.657467019336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2300.993370632405</v>
+        <v>2300.993370632404</v>
       </c>
       <c r="R37" t="n">
         <v>2258.618048085068</v>
@@ -7123,7 +7123,7 @@
         <v>2114.956247918496</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.485512352561</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U37" t="n">
         <v>1700.765680337963</v>
@@ -7132,13 +7132,13 @@
         <v>1494.465353996083</v>
       </c>
       <c r="W37" t="n">
-        <v>1253.43234582313</v>
+        <v>1253.432345823129</v>
       </c>
       <c r="X37" t="n">
         <v>1073.826956789119</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.4185395095963</v>
+        <v>901.418539509596</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2027.78733181283</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C38" t="n">
-        <v>1707.208976736425</v>
+        <v>1707.208976736427</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.327439993682</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E38" t="n">
-        <v>1059.923349259445</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F38" t="n">
-        <v>697.3216063338446</v>
+        <v>697.3216063338459</v>
       </c>
       <c r="G38" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H38" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="I38" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="J38" t="n">
-        <v>265.9635769441828</v>
+        <v>430.0934942061181</v>
       </c>
       <c r="K38" t="n">
-        <v>594.0403137998695</v>
+        <v>1079.074189507258</v>
       </c>
       <c r="L38" t="n">
-        <v>1451.434880661764</v>
+        <v>1522.984153964207</v>
       </c>
       <c r="M38" t="n">
-        <v>1977.039685857406</v>
+        <v>2048.588959159849</v>
       </c>
       <c r="N38" t="n">
-        <v>2515.763134682853</v>
+        <v>2587.312407985296</v>
       </c>
       <c r="O38" t="n">
-        <v>3039.348798403033</v>
+        <v>3082.678423065243</v>
       </c>
       <c r="P38" t="n">
-        <v>3746.211951806774</v>
+        <v>3470.960855379217</v>
       </c>
       <c r="Q38" t="n">
-        <v>3989.623141459238</v>
+        <v>3924.563885784986</v>
       </c>
       <c r="R38" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784975</v>
       </c>
       <c r="S38" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562599</v>
       </c>
       <c r="T38" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214865</v>
       </c>
       <c r="U38" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407494</v>
       </c>
       <c r="V38" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W38" t="n">
-        <v>3032.839776521821</v>
+        <v>3032.839776521823</v>
       </c>
       <c r="X38" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.758180124751</v>
       </c>
       <c r="Y38" t="n">
-        <v>2366.003010012944</v>
+        <v>2366.003010012946</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H39" t="n">
-        <v>90.54388273337446</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I39" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="J39" t="n">
-        <v>172.3112574064236</v>
+        <v>172.3112574064237</v>
       </c>
       <c r="K39" t="n">
-        <v>406.6749853325576</v>
+        <v>406.6749853325577</v>
       </c>
       <c r="L39" t="n">
         <v>768.1284809648084</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N39" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O39" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P39" t="n">
         <v>2416.19684569515</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.1542365433636</v>
+        <v>768.1542365433633</v>
       </c>
       <c r="C40" t="n">
-        <v>647.6022154794638</v>
+        <v>647.6022154794634</v>
       </c>
       <c r="D40" t="n">
-        <v>545.8697379311351</v>
+        <v>545.8697379311349</v>
       </c>
       <c r="E40" t="n">
-        <v>446.340806212749</v>
+        <v>446.3408062127489</v>
       </c>
       <c r="F40" t="n">
         <v>347.8350205788457</v>
       </c>
       <c r="G40" t="n">
-        <v>228.4956840730154</v>
+        <v>228.4956840730155</v>
       </c>
       <c r="H40" t="n">
-        <v>130.4789574623699</v>
+        <v>130.47895746237</v>
       </c>
       <c r="I40" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="J40" t="n">
         <v>172.0283209136809</v>
@@ -7336,46 +7336,46 @@
         <v>421.0840721851844</v>
       </c>
       <c r="L40" t="n">
-        <v>782.0544793376611</v>
+        <v>782.0544793376608</v>
       </c>
       <c r="M40" t="n">
-        <v>1170.458472169178</v>
+        <v>1170.458472169177</v>
       </c>
       <c r="N40" t="n">
-        <v>1556.189275526049</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O40" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P40" t="n">
-        <v>2177.657467019336</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q40" t="n">
-        <v>2300.993370632405</v>
+        <v>2300.993370632403</v>
       </c>
       <c r="R40" t="n">
-        <v>2258.618048085068</v>
+        <v>2258.618048085067</v>
       </c>
       <c r="S40" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.485512352561</v>
+        <v>1941.48551235256</v>
       </c>
       <c r="U40" t="n">
-        <v>1700.765680337963</v>
+        <v>1700.765680337962</v>
       </c>
       <c r="V40" t="n">
         <v>1494.465353996083</v>
       </c>
       <c r="W40" t="n">
-        <v>1253.43234582313</v>
+        <v>1253.432345823129</v>
       </c>
       <c r="X40" t="n">
         <v>1073.826956789119</v>
       </c>
       <c r="Y40" t="n">
-        <v>901.4185395095963</v>
+        <v>901.4185395095958</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2027.78733181283</v>
       </c>
       <c r="C41" t="n">
-        <v>1707.208976736425</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.327439993682</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E41" t="n">
-        <v>1059.923349259445</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F41" t="n">
-        <v>697.3216063338446</v>
+        <v>697.3216063338451</v>
       </c>
       <c r="G41" t="n">
-        <v>330.587256227666</v>
+        <v>330.5872562276659</v>
       </c>
       <c r="H41" t="n">
         <v>80.91608713569947</v>
@@ -7409,25 +7409,25 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J41" t="n">
-        <v>265.9635769441828</v>
+        <v>433.3692259645358</v>
       </c>
       <c r="K41" t="n">
-        <v>594.0403137998695</v>
+        <v>1082.349921265676</v>
       </c>
       <c r="L41" t="n">
-        <v>1037.950278256818</v>
+        <v>1526.259885722624</v>
       </c>
       <c r="M41" t="n">
-        <v>1563.55508345246</v>
+        <v>2051.864690918266</v>
       </c>
       <c r="N41" t="n">
-        <v>2268.731686895527</v>
+        <v>2590.588139743712</v>
       </c>
       <c r="O41" t="n">
-        <v>2764.097701975475</v>
+        <v>3085.95415482366</v>
       </c>
       <c r="P41" t="n">
-        <v>3470.960855379216</v>
+        <v>3474.236587137634</v>
       </c>
       <c r="Q41" t="n">
         <v>3924.563885784985</v>
@@ -7436,7 +7436,7 @@
         <v>4045.804356784974</v>
       </c>
       <c r="S41" t="n">
-        <v>3982.848216562597</v>
+        <v>3982.848216562598</v>
       </c>
       <c r="T41" t="n">
         <v>3825.052995214864</v>
@@ -7445,13 +7445,13 @@
         <v>3619.902995407493</v>
       </c>
       <c r="V41" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W41" t="n">
         <v>3032.839776521822</v>
       </c>
       <c r="X41" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y41" t="n">
         <v>2366.003010012945</v>
@@ -7494,22 +7494,22 @@
         <v>406.6749853325576</v>
       </c>
       <c r="L42" t="n">
-        <v>768.1284809648084</v>
+        <v>796.6986944040984</v>
       </c>
       <c r="M42" t="n">
-        <v>1209.284529879932</v>
+        <v>1237.854743319222</v>
       </c>
       <c r="N42" t="n">
-        <v>1676.525311624794</v>
+        <v>1705.095525064084</v>
       </c>
       <c r="O42" t="n">
-        <v>2081.739548826538</v>
+        <v>2110.309762265828</v>
       </c>
       <c r="P42" t="n">
-        <v>2387.62663225586</v>
+        <v>2416.19684569515</v>
       </c>
       <c r="Q42" t="n">
-        <v>2542.184850424452</v>
+        <v>2570.755063863742</v>
       </c>
       <c r="R42" t="n">
         <v>2570.755063863742</v>
@@ -7552,13 +7552,13 @@
         <v>545.8697379311348</v>
       </c>
       <c r="E43" t="n">
-        <v>446.3408062127487</v>
+        <v>446.3408062127488</v>
       </c>
       <c r="F43" t="n">
-        <v>347.8350205788454</v>
+        <v>347.8350205788456</v>
       </c>
       <c r="G43" t="n">
-        <v>228.4956840730151</v>
+        <v>228.4956840730154</v>
       </c>
       <c r="H43" t="n">
         <v>130.4789574623698</v>
@@ -7567,13 +7567,13 @@
         <v>80.91608713569947</v>
       </c>
       <c r="J43" t="n">
-        <v>172.0283209136809</v>
+        <v>172.0283209136808</v>
       </c>
       <c r="K43" t="n">
         <v>421.0840721851844</v>
       </c>
       <c r="L43" t="n">
-        <v>782.0544793376612</v>
+        <v>782.054479337661</v>
       </c>
       <c r="M43" t="n">
         <v>1170.458472169177</v>
@@ -7594,7 +7594,7 @@
         <v>2258.618048085067</v>
       </c>
       <c r="S43" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T43" t="n">
         <v>1941.48551235256</v>
@@ -7612,7 +7612,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y43" t="n">
-        <v>901.4185395095958</v>
+        <v>901.4185395095957</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2027.78733181283</v>
+        <v>2027.787331812831</v>
       </c>
       <c r="C44" t="n">
-        <v>1707.208976736425</v>
+        <v>1707.208976736426</v>
       </c>
       <c r="D44" t="n">
-        <v>1397.327439993682</v>
+        <v>1397.327439993683</v>
       </c>
       <c r="E44" t="n">
-        <v>1059.923349259445</v>
+        <v>1059.923349259446</v>
       </c>
       <c r="F44" t="n">
-        <v>697.3216063338447</v>
+        <v>697.3216063338455</v>
       </c>
       <c r="G44" t="n">
         <v>330.587256227666</v>
       </c>
       <c r="H44" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="I44" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="J44" t="n">
-        <v>265.9635769441828</v>
+        <v>265.9635769441829</v>
       </c>
       <c r="K44" t="n">
-        <v>699.1150470236061</v>
+        <v>594.0403137998696</v>
       </c>
       <c r="L44" t="n">
-        <v>1143.025011480555</v>
+        <v>1211.051230188342</v>
       </c>
       <c r="M44" t="n">
-        <v>2113.648214834101</v>
+        <v>1736.656035383984</v>
       </c>
       <c r="N44" t="n">
-        <v>2652.371663659547</v>
+        <v>2275.379484209431</v>
       </c>
       <c r="O44" t="n">
-        <v>3147.737678739495</v>
+        <v>3147.737678739496</v>
       </c>
       <c r="P44" t="n">
-        <v>3536.020111053469</v>
+        <v>3536.02011105347</v>
       </c>
       <c r="Q44" t="n">
-        <v>3989.623141459238</v>
+        <v>3989.623141459239</v>
       </c>
       <c r="R44" t="n">
-        <v>4045.804356784974</v>
+        <v>4045.804356784975</v>
       </c>
       <c r="S44" t="n">
-        <v>3982.848216562598</v>
+        <v>3982.848216562599</v>
       </c>
       <c r="T44" t="n">
-        <v>3825.052995214864</v>
+        <v>3825.052995214866</v>
       </c>
       <c r="U44" t="n">
-        <v>3619.902995407493</v>
+        <v>3619.902995407494</v>
       </c>
       <c r="V44" t="n">
-        <v>3337.224269927929</v>
+        <v>3337.22426992793</v>
       </c>
       <c r="W44" t="n">
-        <v>3032.839776521822</v>
+        <v>3032.839776521823</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.758180124749</v>
+        <v>2707.75818012475</v>
       </c>
       <c r="Y44" t="n">
-        <v>2366.003010012944</v>
+        <v>2366.003010012946</v>
       </c>
     </row>
     <row r="45">
@@ -7719,22 +7719,22 @@
         <v>181.2837982663734</v>
       </c>
       <c r="H45" t="n">
-        <v>90.54388273337446</v>
+        <v>90.54388273337449</v>
       </c>
       <c r="I45" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="J45" t="n">
-        <v>172.3112574064236</v>
+        <v>172.3112574064237</v>
       </c>
       <c r="K45" t="n">
-        <v>435.2451987718476</v>
+        <v>406.6749853325577</v>
       </c>
       <c r="L45" t="n">
-        <v>796.6986944040984</v>
+        <v>768.1284809648084</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.854743319222</v>
+        <v>1209.284529879932</v>
       </c>
       <c r="N45" t="n">
         <v>1705.095525064084</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.1542365433634</v>
+        <v>768.1542365433636</v>
       </c>
       <c r="C46" t="n">
-        <v>647.6022154794636</v>
+        <v>647.6022154794638</v>
       </c>
       <c r="D46" t="n">
-        <v>545.869737931135</v>
+        <v>545.8697379311352</v>
       </c>
       <c r="E46" t="n">
-        <v>446.3408062127489</v>
+        <v>446.3408062127492</v>
       </c>
       <c r="F46" t="n">
-        <v>347.8350205788457</v>
+        <v>347.8350205788459</v>
       </c>
       <c r="G46" t="n">
-        <v>228.4956840730153</v>
+        <v>228.4956840730156</v>
       </c>
       <c r="H46" t="n">
-        <v>130.4789574623698</v>
+        <v>130.4789574623699</v>
       </c>
       <c r="I46" t="n">
-        <v>80.91608713569947</v>
+        <v>80.9160871356995</v>
       </c>
       <c r="J46" t="n">
-        <v>172.0283209136809</v>
+        <v>172.028320913681</v>
       </c>
       <c r="K46" t="n">
-        <v>421.0840721851844</v>
+        <v>421.0840721851845</v>
       </c>
       <c r="L46" t="n">
         <v>782.0544793376612</v>
@@ -7816,22 +7816,22 @@
         <v>1170.458472169177</v>
       </c>
       <c r="N46" t="n">
-        <v>1556.189275526048</v>
+        <v>1556.189275526047</v>
       </c>
       <c r="O46" t="n">
-        <v>1900.077864642504</v>
+        <v>1900.077864642503</v>
       </c>
       <c r="P46" t="n">
-        <v>2177.657467019336</v>
+        <v>2177.657467019335</v>
       </c>
       <c r="Q46" t="n">
         <v>2300.993370632404</v>
       </c>
       <c r="R46" t="n">
-        <v>2258.618048085068</v>
+        <v>2258.618048085067</v>
       </c>
       <c r="S46" t="n">
-        <v>2114.956247918496</v>
+        <v>2114.956247918495</v>
       </c>
       <c r="T46" t="n">
         <v>1941.48551235256</v>
@@ -7849,7 +7849,7 @@
         <v>1073.826956789119</v>
       </c>
       <c r="Y46" t="n">
-        <v>901.418539509596</v>
+        <v>901.4185395095963</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8076,7 +8076,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,19 +8219,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O5" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8456,16 +8456,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M8" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
@@ -8772,13 +8772,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>128.3851818425878</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>128.3851818425858</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.490631560732794</v>
+        <v>5.490631560732737</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>277.0692949745697</v>
+        <v>284.5869838946934</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9009,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>28.85880145382828</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>350.3034037676763</v>
       </c>
       <c r="N17" t="n">
-        <v>318.4510848252937</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>28.85880145382822</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>28.85880145382845</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>83.63804978023802</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>83.63804978023768</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>318.4510848252943</v>
       </c>
       <c r="L23" t="n">
-        <v>318.451084825295</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>28.85880145382862</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>28.85880145382822</v>
       </c>
       <c r="R24" t="n">
-        <v>1.657775185779059</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,16 +9878,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>350.3034037676771</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>318.4510848252943</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>28.85880145382828</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.85880145382822</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>1.65777518577903</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>137.988413107773</v>
+        <v>318.4510848252942</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>28.85880145382828</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.85880145382822</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>1.65777518577903</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>350.3034037676772</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>64.75430431466643</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>28.85880145382822</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>1.65777518577903</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>5.752831223405337</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>274.722590574889</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>28.85880145382826</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>30.51657663960732</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>165.787795214076</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>28.50469559619364</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>28.85880145382822</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>28.85880145382845</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>168.1344996137575</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>209.0061707019068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>28.85880145382828</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.51657663960732</v>
+        <v>1.65777518577903</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11297,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>106.1360941653904</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>174.8494463954785</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>28.85880145382828</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>225.4962154864406</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.082705318338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8560859017322</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>251.0080503320927</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.4607083939694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>87.87476740827786</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>145.3970268884839</v>
       </c>
       <c r="I13" t="n">
-        <v>98.52397011385797</v>
+        <v>98.52397011385794</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>92.17897396269611</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>39.96470568095269</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>258.8230439223132</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>113.6996645845243</v>
+        <v>204.1175893796232</v>
       </c>
       <c r="U14" t="n">
         <v>250.9988200546644</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.472010849866</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.046263386139</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.9368795899061</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.96756186877069</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.1255024102732</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>69.02433180393905</v>
+        <v>219.6363484556427</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2129539398189</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.688249540165998e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-7.815970093361102e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -26320,28 +26320,28 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>82997.43997028373</v>
+        <v>82997.43997028374</v>
       </c>
       <c r="F2" t="n">
-        <v>92100.57780742001</v>
+        <v>92100.57780742004</v>
       </c>
       <c r="G2" t="n">
+        <v>102630.2212330354</v>
+      </c>
+      <c r="H2" t="n">
         <v>102630.2212330353</v>
-      </c>
-      <c r="H2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="I2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330353</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330353</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330353</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330353</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>1065126.306349469</v>
       </c>
       <c r="F3" t="n">
-        <v>88335.22644493863</v>
+        <v>88335.22644493812</v>
       </c>
       <c r="G3" t="n">
-        <v>38320.25619629365</v>
+        <v>38320.25619629363</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380391</v>
+        <v>10356.88390380385</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38320.25619629361</v>
+        <v>38320.25619629363</v>
       </c>
       <c r="M3" t="n">
         <v>185095.3097139483</v>
       </c>
       <c r="N3" t="n">
-        <v>56117.93622877515</v>
+        <v>56117.93622877517</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392795.5642185675</v>
+        <v>392795.5642185676</v>
       </c>
       <c r="C4" t="n">
         <v>392795.5642185676</v>
@@ -26424,40 +26424,40 @@
         <v>392795.5642185676</v>
       </c>
       <c r="E4" t="n">
-        <v>8221.035297234903</v>
+        <v>8221.035297234881</v>
       </c>
       <c r="F4" t="n">
         <v>22517.82182439807</v>
       </c>
       <c r="G4" t="n">
+        <v>70715.86778327724</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70715.86778327724</v>
+      </c>
+      <c r="I4" t="n">
+        <v>70715.86778327727</v>
+      </c>
+      <c r="J4" t="n">
         <v>70715.86778327725</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>70715.86778327724</v>
+      </c>
+      <c r="L4" t="n">
         <v>70715.86778327727</v>
       </c>
-      <c r="I4" t="n">
-        <v>70715.86778327728</v>
-      </c>
-      <c r="J4" t="n">
-        <v>70715.86778327728</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>70715.86778327727</v>
+      </c>
+      <c r="N4" t="n">
         <v>70715.8677832773</v>
       </c>
-      <c r="L4" t="n">
-        <v>70715.86778327724</v>
-      </c>
-      <c r="M4" t="n">
-        <v>70715.86778327725</v>
-      </c>
-      <c r="N4" t="n">
-        <v>70715.86778327724</v>
-      </c>
       <c r="O4" t="n">
-        <v>70715.86778327724</v>
+        <v>70715.8677832773</v>
       </c>
       <c r="P4" t="n">
-        <v>70715.86778327727</v>
+        <v>70715.8677832773</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>36034.29971927991</v>
       </c>
       <c r="E5" t="n">
-        <v>70449.84478294506</v>
+        <v>70449.8447829451</v>
       </c>
       <c r="F5" t="n">
-        <v>85006.07440486579</v>
+        <v>85006.07440486581</v>
       </c>
       <c r="G5" t="n">
         <v>89033.00642757356</v>
@@ -26491,25 +26491,25 @@
         <v>89033.00642757356</v>
       </c>
       <c r="J5" t="n">
+        <v>89033.00642757358</v>
+      </c>
+      <c r="K5" t="n">
+        <v>89033.00642757356</v>
+      </c>
+      <c r="L5" t="n">
+        <v>89033.00642757358</v>
+      </c>
+      <c r="M5" t="n">
+        <v>89033.00642757358</v>
+      </c>
+      <c r="N5" t="n">
         <v>89033.00642757359</v>
-      </c>
-      <c r="K5" t="n">
-        <v>89033.00642757359</v>
-      </c>
-      <c r="L5" t="n">
-        <v>89033.00642757359</v>
-      </c>
-      <c r="M5" t="n">
-        <v>89033.00642757361</v>
-      </c>
-      <c r="N5" t="n">
-        <v>89033.00642757358</v>
       </c>
       <c r="O5" t="n">
         <v>89033.00642757358</v>
       </c>
       <c r="P5" t="n">
-        <v>89033.00642757358</v>
+        <v>89033.00642757359</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339465.1103038949</v>
+        <v>-339465.110303895</v>
       </c>
       <c r="C6" t="n">
         <v>-326199.6427048121</v>
@@ -26528,40 +26528,40 @@
         <v>-326199.6427048121</v>
       </c>
       <c r="E6" t="n">
-        <v>-1060799.746459365</v>
+        <v>-1061192.402084621</v>
       </c>
       <c r="F6" t="n">
-        <v>-103758.5448667825</v>
+        <v>-103969.1377352943</v>
       </c>
       <c r="G6" t="n">
-        <v>-95438.90917410915</v>
+        <v>-95438.90917410907</v>
       </c>
       <c r="H6" t="n">
         <v>-57118.65297781547</v>
       </c>
       <c r="I6" t="n">
-        <v>-57118.65297781542</v>
+        <v>-57118.65297781545</v>
       </c>
       <c r="J6" t="n">
-        <v>-67475.53688161947</v>
+        <v>-67475.53688161931</v>
       </c>
       <c r="K6" t="n">
-        <v>-57118.65297781558</v>
+        <v>-57118.65297781547</v>
       </c>
       <c r="L6" t="n">
-        <v>-95438.90917410908</v>
+        <v>-95438.90917410918</v>
       </c>
       <c r="M6" t="n">
-        <v>-242213.9626917638</v>
+        <v>-242213.9626917639</v>
       </c>
       <c r="N6" t="n">
         <v>-113236.5892065907</v>
       </c>
       <c r="O6" t="n">
-        <v>-57118.65297781551</v>
+        <v>-57118.65297781557</v>
       </c>
       <c r="P6" t="n">
-        <v>-57118.65297781558</v>
+        <v>-57118.65297781552</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="I2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="K2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="L2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="M2" t="n">
+        <v>47.90032024536703</v>
+      </c>
+      <c r="N2" t="n">
         <v>47.90032024536706</v>
       </c>
-      <c r="H2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="K2" t="n">
-        <v>47.90032024536706</v>
-      </c>
-      <c r="L2" t="n">
-        <v>47.90032024536701</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.90032024536701</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.90032024536701</v>
-      </c>
       <c r="O2" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P2" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1049.73300895327</v>
+        <v>1049.733008953271</v>
       </c>
       <c r="F3" t="n">
         <v>1078.433402831845</v>
@@ -26796,7 +26796,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="E4" t="n">
-        <v>782.3300195355881</v>
+        <v>782.3300195355888</v>
       </c>
       <c r="F4" t="n">
         <v>1011.451089196243</v>
@@ -26811,25 +26811,25 @@
         <v>1011.451089196243</v>
       </c>
       <c r="J4" t="n">
+        <v>1011.451089196243</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1011.451089196243</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1011.451089196243</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1011.451089196243</v>
+      </c>
+      <c r="N4" t="n">
         <v>1011.451089196244</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1011.451089196244</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1011.451089196244</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1011.451089196244</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1011.451089196243</v>
       </c>
       <c r="O4" t="n">
         <v>1011.451089196243</v>
       </c>
       <c r="P4" t="n">
-        <v>1011.451089196243</v>
+        <v>1011.451089196244</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1049.73300895327</v>
+        <v>1049.733008953271</v>
       </c>
       <c r="F3" t="n">
-        <v>28.70039387857446</v>
+        <v>28.700393878574</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>742.7461425737475</v>
+        <v>742.7461425737482</v>
       </c>
       <c r="F4" t="n">
-        <v>229.1210696606551</v>
+        <v>229.1210696606545</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184093</v>
+        <v>39.5838769618407</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.7461425737478</v>
+        <v>742.7461425737482</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606546</v>
+        <v>229.1210696606547</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.7461425737475</v>
+        <v>742.7461425737482</v>
       </c>
       <c r="N4" t="n">
-        <v>229.1210696606551</v>
+        <v>229.1210696606545</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>182.4864564841282</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27439,7 +27439,7 @@
         <v>288.1683815082943</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>336.5542731462703</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>54.53115402342591</v>
@@ -27506,13 +27506,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>136.4564102853049</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27588,22 +27588,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.2668867104333</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.0471460923379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>323.4346583841019</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,13 +27670,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>133.1246220264752</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8611886027982</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,10 +27707,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27746,16 +27746,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U6" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27780,25 +27780,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>143.4204825963432</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27831,13 +27831,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>242.1600909625637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,10 +27871,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>197.7891939992632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27907,19 +27907,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>368.9936944619388</v>
       </c>
       <c r="Y8" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27980,10 +27980,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27992,10 +27992,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,16 +28026,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>152.2496201461753</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>66.06724261945077</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I17" t="n">
         <v>43.33496992146235</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I20" t="n">
         <v>43.33496992146235</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F23" t="n">
-        <v>47.90032024536691</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I23" t="n">
-        <v>43.3349699214624</v>
+        <v>43.33496992146235</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536754</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I26" t="n">
         <v>43.33496992146235</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I29" t="n">
         <v>43.33496992146235</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.90032024536706</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I32" t="n">
         <v>43.33496992146235</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="P34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I35" t="n">
         <v>43.33496992146235</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="C37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="D37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="E37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="F37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="G37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="H37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="I37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="J37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="K37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="L37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="M37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="N37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="O37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536737</v>
       </c>
       <c r="P37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="R37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="S37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="T37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="U37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="V37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="W37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="X37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536703</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="C38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="D38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="E38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="F38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="G38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="H38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="I38" t="n">
         <v>43.33496992146235</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="T38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="U38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="V38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="W38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="X38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="C40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="D40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="E40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="F40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="G40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="H40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="I40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="J40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="K40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="L40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="M40" t="n">
-        <v>47.90032024536839</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="N40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="O40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="P40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="R40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="S40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="T40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="U40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="V40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="W40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="X40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.90032024536701</v>
+        <v>47.90032024536706</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I41" t="n">
         <v>43.33496992146235</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="C43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="D43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="E43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="F43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="G43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="H43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="I43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="J43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="K43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="L43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="M43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="N43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="O43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="P43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="R43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="S43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="T43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="U43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="V43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="W43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="X43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536707</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I44" t="n">
         <v>43.33496992146235</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="C46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="D46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="E46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="F46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="G46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="H46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="I46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="J46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="K46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="L46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="M46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="N46" t="n">
-        <v>47.90032024536765</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="O46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="P46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="R46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="S46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="T46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="U46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="V46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="W46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="X46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.90032024536703</v>
+        <v>47.90032024536704</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.220032196797064</v>
+        <v>4.220032196797066</v>
       </c>
       <c r="H11" t="n">
-        <v>43.21840473544794</v>
+        <v>43.21840473544796</v>
       </c>
       <c r="I11" t="n">
         <v>162.692791267019</v>
       </c>
       <c r="J11" t="n">
-        <v>358.1699576629051</v>
+        <v>358.1699576629053</v>
       </c>
       <c r="K11" t="n">
-        <v>536.8039205533249</v>
+        <v>536.8039205533252</v>
       </c>
       <c r="L11" t="n">
-        <v>665.9527308960533</v>
+        <v>665.9527308960535</v>
       </c>
       <c r="M11" t="n">
-        <v>741.0007284758429</v>
+        <v>741.0007284758433</v>
       </c>
       <c r="N11" t="n">
-        <v>752.9908949549927</v>
+        <v>752.990894954993</v>
       </c>
       <c r="O11" t="n">
-        <v>711.0279497980919</v>
+        <v>711.0279497980922</v>
       </c>
       <c r="P11" t="n">
-        <v>606.8459049396643</v>
+        <v>606.8459049396645</v>
       </c>
       <c r="Q11" t="n">
-        <v>455.7160018918693</v>
+        <v>455.7160018918694</v>
       </c>
       <c r="R11" t="n">
-        <v>265.0865974820538</v>
+        <v>265.0865974820539</v>
       </c>
       <c r="S11" t="n">
-        <v>96.16398368451318</v>
+        <v>96.16398368451323</v>
       </c>
       <c r="T11" t="n">
         <v>18.47319094147916</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3376025757437651</v>
+        <v>0.3376025757437652</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.257916283408921</v>
+        <v>2.257916283408922</v>
       </c>
       <c r="H12" t="n">
-        <v>21.80671778976511</v>
+        <v>21.80671778976512</v>
       </c>
       <c r="I12" t="n">
-        <v>77.73966151210541</v>
+        <v>77.73966151210546</v>
       </c>
       <c r="J12" t="n">
-        <v>213.3235730741736</v>
+        <v>213.3235730741737</v>
       </c>
       <c r="K12" t="n">
-        <v>364.6039640625713</v>
+        <v>364.6039640625715</v>
       </c>
       <c r="L12" t="n">
-        <v>490.255024605959</v>
+        <v>490.2550246059592</v>
       </c>
       <c r="M12" t="n">
-        <v>572.1044898795323</v>
+        <v>572.1044898795326</v>
       </c>
       <c r="N12" t="n">
-        <v>587.2463933766037</v>
+        <v>587.2463933766039</v>
       </c>
       <c r="O12" t="n">
-        <v>537.2157220442269</v>
+        <v>537.2157220442272</v>
       </c>
       <c r="P12" t="n">
-        <v>431.162978715165</v>
+        <v>431.1629787151652</v>
       </c>
       <c r="Q12" t="n">
-        <v>288.22103294883</v>
+        <v>288.2210329488302</v>
       </c>
       <c r="R12" t="n">
         <v>140.1888724032312</v>
       </c>
       <c r="S12" t="n">
-        <v>41.9398046501613</v>
+        <v>41.93980465016131</v>
       </c>
       <c r="T12" t="n">
-        <v>9.100987124792974</v>
+        <v>9.100987124792978</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1485471239084817</v>
+        <v>0.1485471239084818</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.892961163686225</v>
+        <v>1.892961163686226</v>
       </c>
       <c r="H13" t="n">
-        <v>16.83014561895572</v>
+        <v>16.83014561895573</v>
       </c>
       <c r="I13" t="n">
-        <v>56.92650481340031</v>
+        <v>56.92650481340034</v>
       </c>
       <c r="J13" t="n">
-        <v>133.8323542726161</v>
+        <v>133.8323542726162</v>
       </c>
       <c r="K13" t="n">
-        <v>219.9276697446359</v>
+        <v>219.927669744636</v>
       </c>
       <c r="L13" t="n">
-        <v>281.4316988265866</v>
+        <v>281.4316988265868</v>
       </c>
       <c r="M13" t="n">
-        <v>296.7302667767416</v>
+        <v>296.7302667767418</v>
       </c>
       <c r="N13" t="n">
-        <v>289.6746842575477</v>
+        <v>289.6746842575479</v>
       </c>
       <c r="O13" t="n">
-        <v>267.5614561181222</v>
+        <v>267.5614561181223</v>
       </c>
       <c r="P13" t="n">
-        <v>228.945048378923</v>
+        <v>228.9450483789231</v>
       </c>
       <c r="Q13" t="n">
-        <v>158.5096843519438</v>
+        <v>158.5096843519439</v>
       </c>
       <c r="R13" t="n">
-        <v>85.11441741447334</v>
+        <v>85.11441741447338</v>
       </c>
       <c r="S13" t="n">
-        <v>32.98915046169539</v>
+        <v>32.9891504616954</v>
       </c>
       <c r="T13" t="n">
-        <v>8.088106790295686</v>
+        <v>8.08810679029569</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1032524271101578</v>
+        <v>0.1032524271101579</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.335410664650628</v>
+        <v>4.335410664650629</v>
       </c>
       <c r="H23" t="n">
-        <v>44.40002446935326</v>
+        <v>44.40002446935327</v>
       </c>
       <c r="I23" t="n">
-        <v>167.1409196489435</v>
+        <v>167.1409196489436</v>
       </c>
       <c r="J23" t="n">
-        <v>367.9625608988916</v>
+        <v>367.9625608988917</v>
       </c>
       <c r="K23" t="n">
-        <v>551.4804943335529</v>
+        <v>551.480494333553</v>
       </c>
       <c r="L23" t="n">
-        <v>684.1603184618547</v>
+        <v>684.1603184618548</v>
       </c>
       <c r="M23" t="n">
-        <v>761.2601778693353</v>
+        <v>761.2601778693354</v>
       </c>
       <c r="N23" t="n">
-        <v>773.5781634202739</v>
+        <v>773.5781634202741</v>
       </c>
       <c r="O23" t="n">
-        <v>730.4679236236542</v>
+        <v>730.4679236236543</v>
       </c>
       <c r="P23" t="n">
-        <v>623.4374728400917</v>
+        <v>623.4374728400918</v>
       </c>
       <c r="Q23" t="n">
-        <v>468.1755784122909</v>
+        <v>468.175578412291</v>
       </c>
       <c r="R23" t="n">
         <v>272.3342401633603</v>
       </c>
       <c r="S23" t="n">
-        <v>98.79317052072629</v>
+        <v>98.79317052072632</v>
       </c>
       <c r="T23" t="n">
         <v>18.97826018450814</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3468328531720502</v>
+        <v>0.3468328531720503</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,28 +32783,28 @@
         <v>22.40292785882757</v>
       </c>
       <c r="I24" t="n">
-        <v>79.86511520971681</v>
+        <v>79.86511520971683</v>
       </c>
       <c r="J24" t="n">
         <v>219.155980475479</v>
       </c>
       <c r="K24" t="n">
-        <v>374.5724772835852</v>
+        <v>374.5724772835853</v>
       </c>
       <c r="L24" t="n">
-        <v>503.6589208225516</v>
+        <v>503.6589208225517</v>
       </c>
       <c r="M24" t="n">
-        <v>587.7462045433552</v>
+        <v>587.7462045433554</v>
       </c>
       <c r="N24" t="n">
-        <v>603.3020976842034</v>
+        <v>603.3020976842035</v>
       </c>
       <c r="O24" t="n">
-        <v>551.9035547492366</v>
+        <v>551.9035547492367</v>
       </c>
       <c r="P24" t="n">
-        <v>442.9512593631402</v>
+        <v>442.9512593631403</v>
       </c>
       <c r="Q24" t="n">
         <v>296.1011863775284</v>
@@ -32813,10 +32813,10 @@
         <v>144.0217287781849</v>
       </c>
       <c r="S24" t="n">
-        <v>43.08646661314018</v>
+        <v>43.08646661314019</v>
       </c>
       <c r="T24" t="n">
-        <v>9.349814124551555</v>
+        <v>9.349814124551557</v>
       </c>
       <c r="U24" t="n">
         <v>0.1526085004007328</v>
@@ -32862,7 +32862,7 @@
         <v>17.29029291753352</v>
       </c>
       <c r="I25" t="n">
-        <v>58.48291305848759</v>
+        <v>58.4829130584876</v>
       </c>
       <c r="J25" t="n">
         <v>137.4914192430042</v>
@@ -32874,28 +32874,28 @@
         <v>289.1262273756064</v>
       </c>
       <c r="M25" t="n">
-        <v>304.843068279172</v>
+        <v>304.8430682791721</v>
       </c>
       <c r="N25" t="n">
-        <v>297.5945814732533</v>
+        <v>297.5945814732534</v>
       </c>
       <c r="O25" t="n">
-        <v>274.8767630693365</v>
+        <v>274.8767630693366</v>
       </c>
       <c r="P25" t="n">
-        <v>235.204557234014</v>
+        <v>235.2045572340141</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.8434438276085</v>
+        <v>162.8434438276086</v>
       </c>
       <c r="R25" t="n">
-        <v>87.44150180993937</v>
+        <v>87.4415018099394</v>
       </c>
       <c r="S25" t="n">
         <v>33.89109562669911</v>
       </c>
       <c r="T25" t="n">
-        <v>8.309240972638801</v>
+        <v>8.309240972638802</v>
       </c>
       <c r="U25" t="n">
         <v>0.1060754166719848</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="M5" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.1240531362188</v>
+        <v>177.124053136219</v>
       </c>
       <c r="K11" t="n">
-        <v>316.7140695083444</v>
+        <v>316.7140695083446</v>
       </c>
       <c r="L11" t="n">
-        <v>430.186315926066</v>
+        <v>430.1863159260662</v>
       </c>
       <c r="M11" t="n">
-        <v>510.6544952485702</v>
+        <v>510.6544952485706</v>
       </c>
       <c r="N11" t="n">
-        <v>523.5778313584017</v>
+        <v>523.5778313584021</v>
       </c>
       <c r="O11" t="n">
-        <v>480.9297383764051</v>
+        <v>480.9297383764055</v>
       </c>
       <c r="P11" t="n">
-        <v>375.6129091843947</v>
+        <v>375.6129091843949</v>
       </c>
       <c r="Q11" t="n">
-        <v>233.4103120174198</v>
+        <v>233.41031201742</v>
       </c>
       <c r="R11" t="n">
-        <v>49.50105966792165</v>
+        <v>49.50105966792177</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.4859464075069</v>
+        <v>86.48594640750702</v>
       </c>
       <c r="K12" t="n">
-        <v>226.7625250882123</v>
+        <v>226.7625250882125</v>
       </c>
       <c r="L12" t="n">
-        <v>480.0858266686726</v>
+        <v>351.7006448260851</v>
       </c>
       <c r="M12" t="n">
-        <v>429.9704559575139</v>
+        <v>429.9704559575143</v>
       </c>
       <c r="N12" t="n">
-        <v>455.9046812932704</v>
+        <v>584.2898631358564</v>
       </c>
       <c r="O12" t="n">
-        <v>394.6194775997825</v>
+        <v>394.6194775997827</v>
       </c>
       <c r="P12" t="n">
-        <v>297.1885713008348</v>
+        <v>297.188571300835</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.2392588628085</v>
+        <v>148.2392588628086</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>40.47317415594333</v>
+        <v>40.47317415594338</v>
       </c>
       <c r="K13" t="n">
-        <v>197.6581779187531</v>
+        <v>197.6581779187532</v>
       </c>
       <c r="L13" t="n">
-        <v>309.0217240869027</v>
+        <v>309.021724086903</v>
       </c>
       <c r="M13" t="n">
-        <v>336.3141437385822</v>
+        <v>336.3141437385823</v>
       </c>
       <c r="N13" t="n">
-        <v>333.8068566367763</v>
+        <v>333.8068566367765</v>
       </c>
       <c r="O13" t="n">
-        <v>292.1465840321619</v>
+        <v>292.146584032162</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2236076438165</v>
+        <v>226.2236076438166</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.34764110024945</v>
+        <v>72.3476411002495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>356.0132715442792</v>
+        <v>186.9166563722054</v>
       </c>
       <c r="K14" t="n">
-        <v>608.4599382631421</v>
+        <v>615.9776271832659</v>
       </c>
       <c r="L14" t="n">
-        <v>448.3939034918675</v>
+        <v>866.055118042318</v>
       </c>
       <c r="M14" t="n">
         <v>530.9139446420627</v>
@@ -35662,13 +35662,13 @@
         <v>500.3697122019676</v>
       </c>
       <c r="P14" t="n">
-        <v>714.003185256305</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q14" t="n">
         <v>245.8698885378415</v>
       </c>
       <c r="R14" t="n">
-        <v>56.74870234922821</v>
+        <v>122.4651222222107</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>236.7310383092263</v>
       </c>
       <c r="L15" t="n">
-        <v>393.9633424965058</v>
+        <v>365.1045410426776</v>
       </c>
       <c r="M15" t="n">
         <v>445.612170621337</v>
       </c>
       <c r="N15" t="n">
-        <v>471.9603856008703</v>
+        <v>500.8191870546985</v>
       </c>
       <c r="O15" t="n">
         <v>409.3073103047923</v>
@@ -35887,13 +35887,13 @@
         <v>331.3906432885724</v>
       </c>
       <c r="L17" t="n">
-        <v>448.3939034918675</v>
+        <v>866.055118042318</v>
       </c>
       <c r="M17" t="n">
-        <v>980.4274781348952</v>
+        <v>881.217348409739</v>
       </c>
       <c r="N17" t="n">
-        <v>862.616184648977</v>
+        <v>544.1650998236832</v>
       </c>
       <c r="O17" t="n">
         <v>500.3697122019676</v>
@@ -35969,7 +35969,7 @@
         <v>365.1045410426776</v>
       </c>
       <c r="M18" t="n">
-        <v>445.612170621337</v>
+        <v>474.4709720751653</v>
       </c>
       <c r="N18" t="n">
         <v>471.9603856008703</v>
@@ -35978,7 +35978,7 @@
         <v>409.3073103047923</v>
       </c>
       <c r="P18" t="n">
-        <v>337.8356534026385</v>
+        <v>308.97685194881</v>
       </c>
       <c r="Q18" t="n">
         <v>156.1194122915069</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K19" t="n">
         <v>251.5714659308116</v>
       </c>
       <c r="L19" t="n">
-        <v>364.6165728812897</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M19" t="n">
         <v>392.3272654863797</v>
@@ -36060,7 +36060,7 @@
         <v>280.3834367442746</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,10 +36130,10 @@
         <v>980.4274781348952</v>
       </c>
       <c r="N20" t="n">
-        <v>627.8031496039213</v>
+        <v>544.1650998236832</v>
       </c>
       <c r="O20" t="n">
-        <v>500.3697122019676</v>
+        <v>584.0077619822052</v>
       </c>
       <c r="P20" t="n">
         <v>392.2044770848223</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K22" t="n">
         <v>251.5714659308116</v>
       </c>
       <c r="L22" t="n">
-        <v>364.6165728812897</v>
+        <v>364.6165728812896</v>
       </c>
       <c r="M22" t="n">
         <v>392.3272654863797</v>
       </c>
       <c r="N22" t="n">
-        <v>389.627074097849</v>
+        <v>389.6270740978489</v>
       </c>
       <c r="O22" t="n">
         <v>347.3622112287433</v>
@@ -36297,7 +36297,7 @@
         <v>280.3834367442746</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>186.9166563722054</v>
       </c>
       <c r="K23" t="n">
-        <v>331.3906432885723</v>
+        <v>649.8417281138668</v>
       </c>
       <c r="L23" t="n">
-        <v>766.8449883171625</v>
+        <v>448.3939034918675</v>
       </c>
       <c r="M23" t="n">
-        <v>980.4274781348951</v>
+        <v>980.4274781348952</v>
       </c>
       <c r="N23" t="n">
-        <v>544.165099823683</v>
+        <v>544.1650998236832</v>
       </c>
       <c r="O23" t="n">
-        <v>500.3697122019674</v>
+        <v>500.3697122019676</v>
       </c>
       <c r="P23" t="n">
-        <v>392.2044770848221</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.8698885378414</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R23" t="n">
-        <v>56.74870234922815</v>
+        <v>56.74870234922821</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>92.31835380881228</v>
+        <v>92.3183538088123</v>
       </c>
       <c r="K24" t="n">
-        <v>236.7310383092262</v>
+        <v>236.7310383092263</v>
       </c>
       <c r="L24" t="n">
-        <v>365.1045410426775</v>
+        <v>365.1045410426776</v>
       </c>
       <c r="M24" t="n">
-        <v>445.6121706213369</v>
+        <v>445.612170621337</v>
       </c>
       <c r="N24" t="n">
-        <v>500.8191870546988</v>
+        <v>471.9603856008703</v>
       </c>
       <c r="O24" t="n">
-        <v>409.3073103047922</v>
+        <v>409.3073103047923</v>
       </c>
       <c r="P24" t="n">
         <v>308.97685194881</v>
       </c>
       <c r="Q24" t="n">
-        <v>156.1194122915069</v>
+        <v>184.9782137453352</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,13 +36525,13 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N25" t="n">
-        <v>389.6270740978489</v>
+        <v>389.627074097849</v>
       </c>
       <c r="O25" t="n">
         <v>347.3622112287433</v>
       </c>
       <c r="P25" t="n">
-        <v>280.3834367442745</v>
+        <v>280.3834367442746</v>
       </c>
       <c r="Q25" t="n">
         <v>124.5817208212812</v>
@@ -36598,16 +36598,16 @@
         <v>331.3906432885724</v>
       </c>
       <c r="L26" t="n">
-        <v>866.055118042318</v>
+        <v>448.3939034918675</v>
       </c>
       <c r="M26" t="n">
-        <v>881.2173484097398</v>
+        <v>980.4274781348952</v>
       </c>
       <c r="N26" t="n">
         <v>544.1650998236832</v>
       </c>
       <c r="O26" t="n">
-        <v>500.3697122019676</v>
+        <v>818.8207970272618</v>
       </c>
       <c r="P26" t="n">
         <v>392.2044770848223</v>
@@ -36674,7 +36674,7 @@
         <v>92.3183538088123</v>
       </c>
       <c r="K27" t="n">
-        <v>236.7310383092263</v>
+        <v>265.5898397630546</v>
       </c>
       <c r="L27" t="n">
         <v>365.1045410426776</v>
@@ -36692,7 +36692,7 @@
         <v>308.97685194881</v>
       </c>
       <c r="Q27" t="n">
-        <v>184.9782137453352</v>
+        <v>156.1194122915069</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K28" t="n">
         <v>251.5714659308116</v>
@@ -36771,7 +36771,7 @@
         <v>280.3834367442746</v>
       </c>
       <c r="Q28" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>331.3906432885724</v>
       </c>
       <c r="L29" t="n">
-        <v>866.055118042318</v>
+        <v>448.3939034918675</v>
       </c>
       <c r="M29" t="n">
-        <v>530.9139446420627</v>
+        <v>980.4274781348952</v>
       </c>
       <c r="N29" t="n">
-        <v>682.1535129314562</v>
+        <v>862.6161846489774</v>
       </c>
       <c r="O29" t="n">
         <v>500.3697122019676</v>
@@ -36850,7 +36850,7 @@
         <v>392.2044770848223</v>
       </c>
       <c r="Q29" t="n">
-        <v>458.1848791977462</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R29" t="n">
         <v>56.74870234922821</v>
@@ -36914,7 +36914,7 @@
         <v>236.7310383092263</v>
       </c>
       <c r="L30" t="n">
-        <v>365.1045410426776</v>
+        <v>393.9633424965058</v>
       </c>
       <c r="M30" t="n">
         <v>445.612170621337</v>
@@ -36929,7 +36929,7 @@
         <v>308.97685194881</v>
       </c>
       <c r="Q30" t="n">
-        <v>184.9782137453352</v>
+        <v>156.1194122915069</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.03255937169848</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K31" t="n">
         <v>251.5714659308116</v>
@@ -36999,7 +36999,7 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N31" t="n">
-        <v>389.627074097849</v>
+        <v>389.6270740978489</v>
       </c>
       <c r="O31" t="n">
         <v>347.3622112287433</v>
@@ -37008,7 +37008,7 @@
         <v>280.3834367442746</v>
       </c>
       <c r="Q31" t="n">
-        <v>124.5817208212813</v>
+        <v>124.5817208212812</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>186.9166563722054</v>
+        <v>356.0132715442792</v>
       </c>
       <c r="K32" t="n">
         <v>331.3906432885724</v>
       </c>
       <c r="L32" t="n">
-        <v>866.055118042318</v>
+        <v>448.3939034918675</v>
       </c>
       <c r="M32" t="n">
         <v>530.9139446420627</v>
@@ -37081,16 +37081,16 @@
         <v>544.1650998236832</v>
       </c>
       <c r="O32" t="n">
-        <v>850.6731159696448</v>
+        <v>500.3697122019676</v>
       </c>
       <c r="P32" t="n">
-        <v>392.2044770848223</v>
+        <v>714.003185256305</v>
       </c>
       <c r="Q32" t="n">
-        <v>245.8698885378415</v>
+        <v>458.1848791977462</v>
       </c>
       <c r="R32" t="n">
-        <v>56.74870234922821</v>
+        <v>121.5030066638946</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>365.1045410426776</v>
       </c>
       <c r="M33" t="n">
-        <v>474.4709720751653</v>
+        <v>445.612170621337</v>
       </c>
       <c r="N33" t="n">
         <v>471.9603856008703</v>
@@ -37166,7 +37166,7 @@
         <v>308.97685194881</v>
       </c>
       <c r="Q33" t="n">
-        <v>156.1194122915069</v>
+        <v>184.9782137453352</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.03255937169844</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K34" t="n">
         <v>251.5714659308116</v>
@@ -37236,13 +37236,13 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N34" t="n">
-        <v>389.6270740978489</v>
+        <v>389.627074097849</v>
       </c>
       <c r="O34" t="n">
         <v>347.3622112287433</v>
       </c>
       <c r="P34" t="n">
-        <v>280.3834367442745</v>
+        <v>280.3834367442746</v>
       </c>
       <c r="Q34" t="n">
         <v>124.5817208212812</v>
@@ -37306,7 +37306,7 @@
         <v>356.0132715442792</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1434745119778</v>
+        <v>655.5360558597372</v>
       </c>
       <c r="L35" t="n">
         <v>448.3939034918675</v>
@@ -37318,13 +37318,13 @@
         <v>544.1650998236832</v>
       </c>
       <c r="O35" t="n">
-        <v>881.1698934647129</v>
+        <v>775.0923027768565</v>
       </c>
       <c r="P35" t="n">
         <v>392.2044770848223</v>
       </c>
       <c r="Q35" t="n">
-        <v>458.1848791977462</v>
+        <v>245.8698885378415</v>
       </c>
       <c r="R35" t="n">
         <v>56.74870234922821</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.3183538088123</v>
+        <v>121.1771552626406</v>
       </c>
       <c r="K36" t="n">
         <v>236.7310383092263</v>
@@ -37406,7 +37406,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R36" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169845</v>
       </c>
       <c r="K37" t="n">
         <v>251.5714659308116</v>
@@ -37473,13 +37473,13 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N37" t="n">
-        <v>389.6270740978489</v>
+        <v>389.627074097849</v>
       </c>
       <c r="O37" t="n">
-        <v>347.3622112287433</v>
+        <v>347.3622112287436</v>
       </c>
       <c r="P37" t="n">
-        <v>280.3834367442745</v>
+        <v>280.3834367442746</v>
       </c>
       <c r="Q37" t="n">
         <v>124.5817208212812</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>186.9166563722054</v>
+        <v>352.7044515862814</v>
       </c>
       <c r="K38" t="n">
-        <v>331.3906432885724</v>
+        <v>655.5360558597372</v>
       </c>
       <c r="L38" t="n">
-        <v>866.055118042318</v>
+        <v>448.3939034918675</v>
       </c>
       <c r="M38" t="n">
         <v>530.9139446420627</v>
@@ -37555,16 +37555,16 @@
         <v>544.1650998236832</v>
       </c>
       <c r="O38" t="n">
-        <v>528.8744077981612</v>
+        <v>500.3697122019676</v>
       </c>
       <c r="P38" t="n">
-        <v>714.003185256305</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q38" t="n">
-        <v>245.8698885378415</v>
+        <v>458.1848791977462</v>
       </c>
       <c r="R38" t="n">
-        <v>56.74870234922821</v>
+        <v>122.4651222222107</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37628,7 @@
         <v>365.1045410426776</v>
       </c>
       <c r="M39" t="n">
-        <v>445.612170621337</v>
+        <v>474.4709720751653</v>
       </c>
       <c r="N39" t="n">
         <v>471.9603856008703</v>
@@ -37637,7 +37637,7 @@
         <v>409.3073103047923</v>
       </c>
       <c r="P39" t="n">
-        <v>337.8356534026385</v>
+        <v>308.97685194881</v>
       </c>
       <c r="Q39" t="n">
         <v>156.1194122915069</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.03255937169843</v>
+        <v>92.03255937169848</v>
       </c>
       <c r="K40" t="n">
         <v>251.5714659308116</v>
@@ -37707,19 +37707,19 @@
         <v>364.6165728812896</v>
       </c>
       <c r="M40" t="n">
-        <v>392.3272654863811</v>
+        <v>392.3272654863797</v>
       </c>
       <c r="N40" t="n">
-        <v>389.6270740978489</v>
+        <v>389.627074097849</v>
       </c>
       <c r="O40" t="n">
         <v>347.3622112287433</v>
       </c>
       <c r="P40" t="n">
-        <v>280.3834367442745</v>
+        <v>280.3834367442746</v>
       </c>
       <c r="Q40" t="n">
-        <v>124.5817208212812</v>
+        <v>124.5817208212813</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>186.9166563722054</v>
+        <v>356.0132715442792</v>
       </c>
       <c r="K41" t="n">
-        <v>331.3906432885724</v>
+        <v>655.5360558597372</v>
       </c>
       <c r="L41" t="n">
         <v>448.3939034918675</v>
@@ -37789,16 +37789,16 @@
         <v>530.9139446420627</v>
       </c>
       <c r="N41" t="n">
-        <v>712.2995994374407</v>
+        <v>544.1650998236832</v>
       </c>
       <c r="O41" t="n">
         <v>500.3697122019676</v>
       </c>
       <c r="P41" t="n">
-        <v>714.003185256305</v>
+        <v>392.2044770848223</v>
       </c>
       <c r="Q41" t="n">
-        <v>458.1848791977462</v>
+        <v>454.8760592397483</v>
       </c>
       <c r="R41" t="n">
         <v>122.4651222222107</v>
@@ -37862,7 +37862,7 @@
         <v>236.7310383092263</v>
       </c>
       <c r="L42" t="n">
-        <v>365.1045410426776</v>
+        <v>393.9633424965058</v>
       </c>
       <c r="M42" t="n">
         <v>445.612170621337</v>
@@ -37880,7 +37880,7 @@
         <v>156.1194122915069</v>
       </c>
       <c r="R42" t="n">
-        <v>28.85880145382828</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.03255937169845</v>
+        <v>92.0325593716985</v>
       </c>
       <c r="K43" t="n">
-        <v>251.5714659308116</v>
+        <v>251.5714659308117</v>
       </c>
       <c r="L43" t="n">
         <v>364.6165728812896</v>
       </c>
       <c r="M43" t="n">
-        <v>392.3272654863797</v>
+        <v>392.3272654863798</v>
       </c>
       <c r="N43" t="n">
         <v>389.627074097849</v>
@@ -37956,7 +37956,7 @@
         <v>280.3834367442746</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.5817208212812</v>
+        <v>124.5817208212813</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>186.9166563722054</v>
       </c>
       <c r="K44" t="n">
-        <v>437.5267374539629</v>
+        <v>331.3906432885724</v>
       </c>
       <c r="L44" t="n">
-        <v>448.3939034918675</v>
+        <v>623.2433498873461</v>
       </c>
       <c r="M44" t="n">
-        <v>980.4274781348952</v>
+        <v>530.9139446420627</v>
       </c>
       <c r="N44" t="n">
         <v>544.1650998236832</v>
       </c>
       <c r="O44" t="n">
-        <v>500.3697122019676</v>
+        <v>881.1698934647129</v>
       </c>
       <c r="P44" t="n">
         <v>392.2044770848223</v>
@@ -38096,7 +38096,7 @@
         <v>92.3183538088123</v>
       </c>
       <c r="K45" t="n">
-        <v>265.5898397630546</v>
+        <v>236.7310383092263</v>
       </c>
       <c r="L45" t="n">
         <v>365.1045410426776</v>
@@ -38105,7 +38105,7 @@
         <v>445.612170621337</v>
       </c>
       <c r="N45" t="n">
-        <v>471.9603856008703</v>
+        <v>500.8191870546985</v>
       </c>
       <c r="O45" t="n">
         <v>409.3073103047923</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.03255937169845</v>
+        <v>92.03255937169847</v>
       </c>
       <c r="K46" t="n">
         <v>251.5714659308116</v>
@@ -38184,7 +38184,7 @@
         <v>392.3272654863797</v>
       </c>
       <c r="N46" t="n">
-        <v>389.6270740978496</v>
+        <v>389.6270740978489</v>
       </c>
       <c r="O46" t="n">
         <v>347.3622112287433</v>
